--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>12</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
       <c r="L12" t="n">
         <v>123.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>13</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>123.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>14</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-50</v>
+      </c>
       <c r="L14" t="n">
         <v>123</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>17</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-63.63636363636363</v>
+      </c>
       <c r="L15" t="n">
         <v>122.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>19</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-83.33333333333334</v>
+      </c>
       <c r="L16" t="n">
         <v>121.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>22</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-46.66666666666666</v>
+      </c>
       <c r="L17" t="n">
         <v>120.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>23</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-37.5</v>
+      </c>
       <c r="L18" t="n">
         <v>120.1</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>24</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20</v>
+      </c>
       <c r="L19" t="n">
         <v>119.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>24</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L20" t="n">
         <v>119.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>27</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>118.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>27</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-28.57142857142857</v>
+      </c>
       <c r="L22" t="n">
         <v>118.4</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="K23" t="n">
-        <v>-12</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L23" t="n">
         <v>118</v>
@@ -1466,7 +1488,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>-25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L24" t="n">
         <v>117.6</v>
@@ -1515,7 +1537,7 @@
         <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>-36.36363636363637</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L25" t="n">
         <v>117.5</v>
@@ -1564,7 +1586,7 @@
         <v>28</v>
       </c>
       <c r="K26" t="n">
-        <v>-36.36363636363637</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>117.6</v>
@@ -1613,7 +1635,7 @@
         <v>28</v>
       </c>
       <c r="K27" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L27" t="n">
         <v>117.4</v>
@@ -1662,7 +1684,7 @@
         <v>29</v>
       </c>
       <c r="K28" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L28" t="n">
         <v>117</v>
@@ -1717,7 +1739,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L29" t="n">
         <v>116.5</v>
@@ -1774,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L30" t="n">
         <v>115.9</v>
@@ -1835,7 +1857,7 @@
         <v>31</v>
       </c>
       <c r="K31" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>115.5</v>
@@ -1955,7 +1977,7 @@
         <v>33</v>
       </c>
       <c r="K33" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L33" t="n">
         <v>115.1</v>
@@ -2018,7 +2040,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="n">
-        <v>-26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>115</v>
@@ -2079,7 +2101,7 @@
         <v>35</v>
       </c>
       <c r="K35" t="n">
-        <v>-22.22222222222222</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L35" t="n">
         <v>114.7</v>
@@ -2140,7 +2162,7 @@
         <v>36</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L36" t="n">
         <v>114.3</v>
@@ -2199,7 +2221,7 @@
         <v>39</v>
       </c>
       <c r="K37" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>114.2</v>
@@ -2256,7 +2278,7 @@
         <v>41</v>
       </c>
       <c r="K38" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L38" t="n">
         <v>114</v>
@@ -2313,7 +2335,7 @@
         <v>41</v>
       </c>
       <c r="K39" t="n">
-        <v>-41.17647058823529</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L39" t="n">
         <v>113.8</v>
@@ -2370,7 +2392,7 @@
         <v>43</v>
       </c>
       <c r="K40" t="n">
-        <v>-26.31578947368421</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L40" t="n">
         <v>113.9</v>
@@ -2427,7 +2449,7 @@
         <v>46</v>
       </c>
       <c r="K41" t="n">
-        <v>-26.31578947368421</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L41" t="n">
         <v>113.8</v>
@@ -2484,7 +2506,7 @@
         <v>49</v>
       </c>
       <c r="K42" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>113.8</v>
@@ -2541,7 +2563,7 @@
         <v>54</v>
       </c>
       <c r="K43" t="n">
-        <v>-25.92592592592592</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L43" t="n">
         <v>113.3</v>
@@ -2598,7 +2620,7 @@
         <v>55</v>
       </c>
       <c r="K44" t="n">
-        <v>-18.51851851851852</v>
+        <v>-10</v>
       </c>
       <c r="L44" t="n">
         <v>112.9</v>
@@ -2655,7 +2677,7 @@
         <v>55</v>
       </c>
       <c r="K45" t="n">
-        <v>-18.51851851851852</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L45" t="n">
         <v>112.7</v>
@@ -2712,7 +2734,7 @@
         <v>55</v>
       </c>
       <c r="K46" t="n">
-        <v>-18.51851851851852</v>
+        <v>-25</v>
       </c>
       <c r="L46" t="n">
         <v>112.6</v>
@@ -2769,7 +2791,7 @@
         <v>55</v>
       </c>
       <c r="K47" t="n">
-        <v>-18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>112.2</v>
@@ -2820,7 +2842,7 @@
         <v>55</v>
       </c>
       <c r="K48" t="n">
-        <v>-15.38461538461539</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>112</v>
@@ -2871,7 +2893,7 @@
         <v>56</v>
       </c>
       <c r="K49" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L49" t="n">
         <v>111.9</v>
@@ -2922,7 +2944,7 @@
         <v>57</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L50" t="n">
         <v>111.5</v>
@@ -2973,7 +2995,7 @@
         <v>57</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L51" t="n">
         <v>111.4</v>
@@ -3024,7 +3046,7 @@
         <v>57</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>111</v>
@@ -3075,7 +3097,7 @@
         <v>58</v>
       </c>
       <c r="K53" t="n">
-        <v>-12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>111.2</v>
@@ -3126,7 +3148,7 @@
         <v>59</v>
       </c>
       <c r="K54" t="n">
-        <v>-15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>111.2</v>
@@ -3177,7 +3199,7 @@
         <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
         <v>111.3</v>
@@ -3228,7 +3250,7 @@
         <v>61</v>
       </c>
       <c r="K56" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>111.3</v>
@@ -3279,7 +3301,7 @@
         <v>61</v>
       </c>
       <c r="K57" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>111.3</v>
@@ -3330,7 +3352,7 @@
         <v>65</v>
       </c>
       <c r="K58" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>111.7</v>
@@ -3381,7 +3403,7 @@
         <v>70</v>
       </c>
       <c r="K59" t="n">
-        <v>-10.3448275862069</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L59" t="n">
         <v>111.5</v>
@@ -3432,7 +3454,7 @@
         <v>72</v>
       </c>
       <c r="K60" t="n">
-        <v>-10.3448275862069</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L60" t="n">
         <v>111.6</v>
@@ -3483,7 +3505,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>111.7</v>
@@ -3534,7 +3556,7 @@
         <v>72</v>
       </c>
       <c r="K62" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>111.8</v>
@@ -3585,7 +3607,7 @@
         <v>72</v>
       </c>
       <c r="K63" t="n">
-        <v>11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L63" t="n">
         <v>111.8</v>
@@ -3636,7 +3658,7 @@
         <v>72</v>
       </c>
       <c r="K64" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>111.9</v>
@@ -3687,7 +3709,7 @@
         <v>73</v>
       </c>
       <c r="K65" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L65" t="n">
         <v>112</v>
@@ -3738,7 +3760,7 @@
         <v>74</v>
       </c>
       <c r="K66" t="n">
-        <v>5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L66" t="n">
         <v>112.1</v>
@@ -3789,7 +3811,7 @@
         <v>74</v>
       </c>
       <c r="K67" t="n">
-        <v>5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>112.2</v>
@@ -3840,7 +3862,7 @@
         <v>74</v>
       </c>
       <c r="K68" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L68" t="n">
         <v>111.9</v>
@@ -3942,7 +3964,7 @@
         <v>74</v>
       </c>
       <c r="K70" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>112.1</v>
@@ -3993,7 +4015,7 @@
         <v>74</v>
       </c>
       <c r="K71" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>112.1</v>
@@ -4044,7 +4066,7 @@
         <v>75</v>
       </c>
       <c r="K72" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>112.2</v>
@@ -4095,7 +4117,7 @@
         <v>75</v>
       </c>
       <c r="K73" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>112.3</v>
@@ -4146,7 +4168,7 @@
         <v>75</v>
       </c>
       <c r="K74" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>112.4</v>
@@ -4197,7 +4219,7 @@
         <v>75</v>
       </c>
       <c r="K75" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
         <v>112.4</v>
@@ -4248,7 +4270,7 @@
         <v>75</v>
       </c>
       <c r="K76" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
         <v>112.5</v>
@@ -4299,7 +4321,7 @@
         <v>75</v>
       </c>
       <c r="K77" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>112.6</v>
@@ -4350,7 +4372,7 @@
         <v>75</v>
       </c>
       <c r="K78" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>112.7</v>
@@ -4401,7 +4423,7 @@
         <v>75</v>
       </c>
       <c r="K79" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
         <v>112.8</v>
@@ -4452,7 +4474,7 @@
         <v>75</v>
       </c>
       <c r="K80" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
         <v>112.9</v>
@@ -4503,7 +4525,7 @@
         <v>76</v>
       </c>
       <c r="K81" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
         <v>113.1</v>
@@ -4554,7 +4576,7 @@
         <v>79</v>
       </c>
       <c r="K82" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
         <v>113.5</v>
@@ -4656,7 +4678,7 @@
         <v>83</v>
       </c>
       <c r="K84" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L84" t="n">
         <v>114.1</v>
@@ -4758,7 +4780,7 @@
         <v>88</v>
       </c>
       <c r="K86" t="n">
-        <v>14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L86" t="n">
         <v>114.2</v>
@@ -4809,7 +4831,7 @@
         <v>89</v>
       </c>
       <c r="K87" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>114.2</v>
@@ -4860,7 +4882,7 @@
         <v>89</v>
       </c>
       <c r="K88" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>114.2</v>
@@ -4911,7 +4933,7 @@
         <v>89</v>
       </c>
       <c r="K89" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>114.2</v>
@@ -4962,7 +4984,7 @@
         <v>91</v>
       </c>
       <c r="K90" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L90" t="n">
         <v>114</v>
@@ -5013,7 +5035,7 @@
         <v>93</v>
       </c>
       <c r="K91" t="n">
-        <v>5.263157894736842</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L91" t="n">
         <v>113.9</v>
@@ -5064,7 +5086,7 @@
         <v>95</v>
       </c>
       <c r="K92" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>113.7</v>
@@ -5115,7 +5137,7 @@
         <v>98</v>
       </c>
       <c r="K93" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>113.4</v>
@@ -5166,7 +5188,7 @@
         <v>101</v>
       </c>
       <c r="K94" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L94" t="n">
         <v>113.2</v>
@@ -5268,7 +5290,7 @@
         <v>101</v>
       </c>
       <c r="K96" t="n">
-        <v>7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L96" t="n">
         <v>113.5</v>
@@ -5319,7 +5341,7 @@
         <v>104</v>
       </c>
       <c r="K97" t="n">
-        <v>-3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L97" t="n">
         <v>113.4</v>
@@ -5370,7 +5392,7 @@
         <v>106</v>
       </c>
       <c r="K98" t="n">
-        <v>3.225806451612903</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L98" t="n">
         <v>113.5</v>
@@ -5421,7 +5443,7 @@
         <v>109</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>113.3</v>
@@ -5523,7 +5545,7 @@
         <v>113</v>
       </c>
       <c r="K101" t="n">
-        <v>-8.108108108108109</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L101" t="n">
         <v>113.3</v>
@@ -5574,7 +5596,7 @@
         <v>115</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.11111111111111</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L102" t="n">
         <v>113.1</v>
@@ -5625,7 +5647,7 @@
         <v>116</v>
       </c>
       <c r="K103" t="n">
-        <v>-2.857142857142857</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L103" t="n">
         <v>113.3</v>
@@ -5676,7 +5698,7 @@
         <v>116</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.090909090909092</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L104" t="n">
         <v>113.2</v>
@@ -5727,7 +5749,7 @@
         <v>116</v>
       </c>
       <c r="K105" t="n">
-        <v>3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L105" t="n">
         <v>113.1</v>
@@ -5778,7 +5800,7 @@
         <v>117</v>
       </c>
       <c r="K106" t="n">
-        <v>3.448275862068965</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L106" t="n">
         <v>113.1</v>
@@ -5829,7 +5851,7 @@
         <v>119</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L107" t="n">
         <v>113.2</v>
@@ -5880,7 +5902,7 @@
         <v>121</v>
       </c>
       <c r="K108" t="n">
-        <v>6.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>113.3</v>
@@ -5931,7 +5953,7 @@
         <v>122</v>
       </c>
       <c r="K109" t="n">
-        <v>3.03030303030303</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L109" t="n">
         <v>113.6</v>
@@ -5982,7 +6004,7 @@
         <v>123</v>
       </c>
       <c r="K110" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="L110" t="n">
         <v>113.8</v>
@@ -6033,7 +6055,7 @@
         <v>123</v>
       </c>
       <c r="K111" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L111" t="n">
         <v>114.2</v>
@@ -6084,7 +6106,7 @@
         <v>125</v>
       </c>
       <c r="K112" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L112" t="n">
         <v>114.2</v>
@@ -6135,7 +6157,7 @@
         <v>127</v>
       </c>
       <c r="K113" t="n">
-        <v>10.3448275862069</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L113" t="n">
         <v>114.3</v>
@@ -6186,7 +6208,7 @@
         <v>127</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L114" t="n">
         <v>114.4</v>
@@ -6237,7 +6259,7 @@
         <v>128</v>
       </c>
       <c r="K115" t="n">
-        <v>3.703703703703703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L115" t="n">
         <v>114.6</v>
@@ -6288,7 +6310,7 @@
         <v>131</v>
       </c>
       <c r="K116" t="n">
-        <v>13.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L116" t="n">
         <v>115</v>
@@ -6339,7 +6361,7 @@
         <v>134</v>
       </c>
       <c r="K117" t="n">
-        <v>13.33333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L117" t="n">
         <v>115.3</v>
@@ -6390,7 +6412,7 @@
         <v>136</v>
       </c>
       <c r="K118" t="n">
-        <v>13.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L118" t="n">
         <v>115.6</v>
@@ -6445,7 +6467,7 @@
         <v>137</v>
       </c>
       <c r="K119" t="n">
-        <v>21.42857142857143</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L119" t="n">
         <v>115.9</v>
@@ -6500,7 +6522,7 @@
         <v>139</v>
       </c>
       <c r="K120" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>115.9</v>
@@ -6557,7 +6579,7 @@
         <v>139</v>
       </c>
       <c r="K121" t="n">
-        <v>15.38461538461539</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>115.9</v>

--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fluc_close</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +438,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" t="n">
-        <v>63151.9738</v>
+        <v>3458.8056</v>
       </c>
       <c r="G2" t="n">
-        <v>112.6</v>
+        <v>111.0666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>112.4333333333333</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +476,36 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" t="n">
-        <v>31110.4</v>
+        <v>63151.9738</v>
       </c>
       <c r="G3" t="n">
-        <v>112.8</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +514,36 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>119</v>
+      </c>
+      <c r="C4" t="n">
         <v>120</v>
       </c>
-      <c r="C4" t="n">
-        <v>122</v>
-      </c>
       <c r="D4" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="n">
-        <v>52285.3983</v>
+        <v>31110.4</v>
       </c>
       <c r="G4" t="n">
-        <v>113</v>
+        <v>112.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>112.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +552,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>120</v>
+      </c>
+      <c r="C5" t="n">
         <v>122</v>
       </c>
-      <c r="C5" t="n">
-        <v>124</v>
-      </c>
       <c r="D5" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E5" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" t="n">
-        <v>37482.9993</v>
+        <v>52285.3983</v>
       </c>
       <c r="G5" t="n">
         <v>113.2666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +590,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" t="n">
         <v>124</v>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E6" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" t="n">
-        <v>41428.7538</v>
+        <v>37482.9993</v>
       </c>
       <c r="G6" t="n">
-        <v>113.55</v>
+        <v>114.2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>113.2666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +628,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>41428.7538</v>
       </c>
       <c r="G7" t="n">
-        <v>113.8666666666667</v>
+        <v>115.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>113.55</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -723,35 +672,30 @@
         <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" t="n">
         <v>125</v>
       </c>
       <c r="F8" t="n">
-        <v>16209.364</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>114.1333333333333</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>113.8666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" t="n">
         <v>125</v>
@@ -772,29 +716,24 @@
         <v>125</v>
       </c>
       <c r="F9" t="n">
-        <v>12468.06179685039</v>
+        <v>16209.364</v>
       </c>
       <c r="G9" t="n">
-        <v>114.3833333333333</v>
+        <v>117.4666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>114.1333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +742,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>127</v>
+      </c>
+      <c r="C10" t="n">
         <v>125</v>
       </c>
-      <c r="C10" t="n">
-        <v>123</v>
-      </c>
       <c r="D10" t="n">
+        <v>127</v>
+      </c>
+      <c r="E10" t="n">
         <v>125</v>
       </c>
-      <c r="E10" t="n">
-        <v>123</v>
-      </c>
       <c r="F10" t="n">
-        <v>1785.2279</v>
+        <v>12468.06179685039</v>
       </c>
       <c r="G10" t="n">
-        <v>114.6166666666667</v>
+        <v>118.3333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>114.3833333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +780,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C11" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" t="n">
-        <v>12547.24042580645</v>
+        <v>1785.2279</v>
       </c>
       <c r="G11" t="n">
-        <v>114.7333333333333</v>
+        <v>119.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>114.6166666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>122.7</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +818,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>122</v>
+      </c>
+      <c r="C12" t="n">
         <v>121</v>
       </c>
-      <c r="C12" t="n">
-        <v>122</v>
-      </c>
       <c r="D12" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F12" t="n">
-        <v>30440.4254</v>
+        <v>12547.24042580645</v>
       </c>
       <c r="G12" t="n">
-        <v>114.8833333333333</v>
+        <v>119.8666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>114.7333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20</v>
-      </c>
-      <c r="L12" t="n">
-        <v>123.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +856,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" t="n">
         <v>122</v>
       </c>
       <c r="E13" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F13" t="n">
-        <v>13001.31076229508</v>
+        <v>30440.4254</v>
       </c>
       <c r="G13" t="n">
-        <v>114.9666666666667</v>
+        <v>120.3333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.8833333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L13" t="n">
-        <v>123.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,42 +897,33 @@
         <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" t="n">
-        <v>2393.2708</v>
+        <v>13001.31076229508</v>
       </c>
       <c r="G14" t="n">
-        <v>115.0333333333333</v>
+        <v>120.8666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>114.9666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L14" t="n">
-        <v>123</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +932,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D15" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>60439.3063</v>
+        <v>2393.2708</v>
       </c>
       <c r="G15" t="n">
+        <v>121.2666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>115.0333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>17</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L15" t="n">
-        <v>122.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +970,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C16" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E16" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F16" t="n">
-        <v>7866.0765</v>
+        <v>60439.3063</v>
       </c>
       <c r="G16" t="n">
-        <v>115</v>
+        <v>121.4666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>115.0333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L16" t="n">
-        <v>121.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +1008,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F17" t="n">
-        <v>847.457627118644</v>
+        <v>7866.0765</v>
       </c>
       <c r="G17" t="n">
-        <v>115</v>
+        <v>121.4666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>22</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L17" t="n">
-        <v>120.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1046,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18" t="n">
-        <v>20783.3782</v>
+        <v>847.457627118644</v>
       </c>
       <c r="G18" t="n">
-        <v>115.0333333333333</v>
+        <v>121.4666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>120.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1084,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C19" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" t="n">
-        <v>19240.4997</v>
+        <v>20783.3782</v>
       </c>
       <c r="G19" t="n">
-        <v>115.0666666666667</v>
+        <v>121.4</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.0333333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L19" t="n">
-        <v>119.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1276,36 +1131,27 @@
         <v>120</v>
       </c>
       <c r="E20" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" t="n">
-        <v>3679.0084</v>
+        <v>19240.4997</v>
       </c>
       <c r="G20" t="n">
-        <v>115.1166666666667</v>
+        <v>121.2666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>115.0666666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>24</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L20" t="n">
-        <v>119.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1160,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C21" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D21" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F21" t="n">
-        <v>11017.5844</v>
+        <v>3679.0084</v>
       </c>
       <c r="G21" t="n">
+        <v>121</v>
+      </c>
+      <c r="H21" t="n">
         <v>115.1166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>27</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>118.9</v>
-      </c>
-      <c r="M21" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1198,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="n">
         <v>117</v>
       </c>
       <c r="D22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" t="n">
         <v>117</v>
       </c>
       <c r="F22" t="n">
-        <v>62.6776</v>
+        <v>11017.5844</v>
       </c>
       <c r="G22" t="n">
-        <v>115.15</v>
+        <v>120.5333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.1166666666667</v>
       </c>
       <c r="I22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>27</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L22" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>120.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,35 +1248,24 @@
         <v>117</v>
       </c>
       <c r="F23" t="n">
-        <v>7800</v>
+        <v>62.6776</v>
       </c>
       <c r="G23" t="n">
-        <v>115.1833333333333</v>
+        <v>120</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>115.15</v>
       </c>
       <c r="I23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>27</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L23" t="n">
-        <v>118</v>
-      </c>
-      <c r="M23" t="n">
-        <v>120.6</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,44 +1277,33 @@
         <v>117</v>
       </c>
       <c r="C24" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" t="n">
         <v>117</v>
       </c>
       <c r="E24" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" t="n">
-        <v>8043</v>
+        <v>7800</v>
       </c>
       <c r="G24" t="n">
-        <v>115.2</v>
+        <v>119.4666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>115.1833333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>28</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L24" t="n">
-        <v>117.6</v>
-      </c>
-      <c r="M24" t="n">
-        <v>120.3</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,35 +1324,24 @@
         <v>116</v>
       </c>
       <c r="F25" t="n">
-        <v>3669.8109</v>
+        <v>8043</v>
       </c>
       <c r="G25" t="n">
-        <v>115.2166666666667</v>
+        <v>118.8666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>115.2</v>
       </c>
       <c r="I25" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>28</v>
-      </c>
-      <c r="K25" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L25" t="n">
-        <v>117.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1350,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="n">
         <v>116</v>
       </c>
       <c r="D26" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" t="n">
         <v>116</v>
       </c>
       <c r="F26" t="n">
-        <v>1025.0621</v>
+        <v>3669.8109</v>
       </c>
       <c r="G26" t="n">
-        <v>115.2333333333333</v>
+        <v>118.4</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>115.2166666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>28</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>117.6</v>
-      </c>
-      <c r="M26" t="n">
-        <v>119.5</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,35 +1400,24 @@
         <v>116</v>
       </c>
       <c r="F27" t="n">
-        <v>743.2608</v>
+        <v>1025.0621</v>
       </c>
       <c r="G27" t="n">
-        <v>115.3166666666667</v>
+        <v>118.0666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>115.2333333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L27" t="n">
-        <v>117.4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>119.05</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1660,50 +1429,33 @@
         <v>116</v>
       </c>
       <c r="C28" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28" t="n">
         <v>116</v>
       </c>
       <c r="E28" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" t="n">
-        <v>580.1292</v>
+        <v>743.2608</v>
       </c>
       <c r="G28" t="n">
-        <v>115.3833333333333</v>
+        <v>117.6666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>115.3166666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L28" t="n">
-        <v>117</v>
-      </c>
-      <c r="M28" t="n">
-        <v>118.55</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>116</v>
-      </c>
-      <c r="P28" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>116</v>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,55 +1464,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" t="n">
         <v>115</v>
       </c>
       <c r="D29" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" t="n">
         <v>115</v>
       </c>
       <c r="F29" t="n">
-        <v>5418.3347</v>
+        <v>580.1292</v>
       </c>
       <c r="G29" t="n">
-        <v>115.4166666666667</v>
+        <v>117.2666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>115.3833333333333</v>
       </c>
       <c r="I29" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L29" t="n">
-        <v>116.5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>118.05</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>115</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>116</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1769,59 +1502,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F30" t="n">
-        <v>16149.0438</v>
+        <v>5418.3347</v>
       </c>
       <c r="G30" t="n">
-        <v>115.45</v>
+        <v>116.9333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>115.4166666666667</v>
       </c>
       <c r="I30" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>30</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L30" t="n">
-        <v>115.9</v>
-      </c>
-      <c r="M30" t="n">
-        <v>117.6</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>115</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>116</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,56 +1543,33 @@
         <v>114</v>
       </c>
       <c r="C31" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" t="n">
         <v>114</v>
       </c>
       <c r="E31" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F31" t="n">
-        <v>7107.6107</v>
+        <v>16149.0438</v>
       </c>
       <c r="G31" t="n">
-        <v>115.4333333333333</v>
+        <v>116.7333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>115.45</v>
       </c>
       <c r="I31" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>115.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>117.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>119.0333333333333</v>
-      </c>
-      <c r="O31" t="n">
-        <v>114</v>
-      </c>
-      <c r="P31" t="n">
-        <v>119</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>116</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1891,57 +1578,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D32" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>7107.6107</v>
       </c>
       <c r="G32" t="n">
-        <v>115.45</v>
+        <v>116.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>115.4333333333333</v>
       </c>
       <c r="I32" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>33</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L32" t="n">
-        <v>115.3</v>
-      </c>
-      <c r="M32" t="n">
-        <v>116.85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>118.9333333333333</v>
-      </c>
-      <c r="O32" t="n">
-        <v>113</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>116</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1950,7 +1616,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" t="n">
         <v>115</v>
@@ -1959,52 +1625,27 @@
         <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F33" t="n">
-        <v>3508.5808</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H33" t="n">
         <v>115.45</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L33" t="n">
-        <v>115.1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>116.55</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>118.7666666666667</v>
-      </c>
-      <c r="O33" t="n">
-        <v>115</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>116</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2013,7 +1654,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" t="n">
         <v>115</v>
@@ -2022,50 +1663,27 @@
         <v>115</v>
       </c>
       <c r="E34" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F34" t="n">
-        <v>464.796</v>
+        <v>3508.5808</v>
       </c>
       <c r="G34" t="n">
-        <v>115.4833333333333</v>
+        <v>116.1333333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>115.45</v>
       </c>
       <c r="I34" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>115</v>
-      </c>
-      <c r="M34" t="n">
-        <v>116.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>118.5333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>116</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,56 +1695,33 @@
         <v>113</v>
       </c>
       <c r="C35" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" t="n">
         <v>113</v>
       </c>
       <c r="F35" t="n">
-        <v>27827.0252</v>
+        <v>464.796</v>
       </c>
       <c r="G35" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H35" t="n">
         <v>115.4833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>35</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L35" t="n">
-        <v>114.7</v>
-      </c>
-      <c r="M35" t="n">
-        <v>116.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>118.1666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>116</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,54 +1733,33 @@
         <v>113</v>
       </c>
       <c r="C36" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="n">
         <v>113</v>
       </c>
       <c r="E36" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F36" t="n">
-        <v>6763.6948</v>
+        <v>27827.0252</v>
       </c>
       <c r="G36" t="n">
-        <v>115.4666666666667</v>
+        <v>115.3333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>115.4833333333333</v>
       </c>
       <c r="I36" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>36</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L36" t="n">
-        <v>114.3</v>
-      </c>
-      <c r="M36" t="n">
-        <v>115.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>117.7666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
-        <v>116.9</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>116</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,55 +1768,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>6763.6948</v>
       </c>
       <c r="G37" t="n">
-        <v>115.5</v>
+        <v>115</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>115.4666666666667</v>
       </c>
       <c r="I37" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>39</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>115.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>117.4333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>116</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,55 +1806,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C38" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E38" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" t="n">
-        <v>7111.0565</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>115.4833333333333</v>
+        <v>114.8666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>115.5</v>
       </c>
       <c r="I38" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>41</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L38" t="n">
-        <v>114</v>
-      </c>
-      <c r="M38" t="n">
-        <v>115.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>117.0333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
-        <v>116</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,43 +1856,24 @@
         <v>113</v>
       </c>
       <c r="F39" t="n">
-        <v>2800</v>
+        <v>7111.0565</v>
       </c>
       <c r="G39" t="n">
-        <v>115.45</v>
+        <v>114.6</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>115.4833333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L39" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="M39" t="n">
-        <v>115.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>116.6333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>116</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,55 +1882,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2800</v>
       </c>
       <c r="G40" t="n">
-        <v>115.5</v>
+        <v>114.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>115.45</v>
       </c>
       <c r="I40" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43</v>
-      </c>
-      <c r="K40" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L40" t="n">
-        <v>113.9</v>
-      </c>
-      <c r="M40" t="n">
-        <v>114.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>116.3666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>116</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2422,55 +1920,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D41" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F41" t="n">
-        <v>4754.8497</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>115.45</v>
+        <v>114.3333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>115.5</v>
       </c>
       <c r="I41" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>46</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L41" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="M41" t="n">
-        <v>114.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>116.0666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>116</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,55 +1958,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D42" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E42" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>4754.8497</v>
       </c>
       <c r="G42" t="n">
+        <v>114.0666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>115.45</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>49</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="M42" t="n">
-        <v>114.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>115.8333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>116</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,55 +1996,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C43" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D43" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F43" t="n">
-        <v>102654.6769</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
+        <v>114</v>
+      </c>
+      <c r="H43" t="n">
         <v>115.45</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L43" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>114.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>115.4666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>116</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2593,55 +2034,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" t="n">
-        <v>3659.5104</v>
+        <v>102654.6769</v>
       </c>
       <c r="G44" t="n">
-        <v>115.4833333333333</v>
+        <v>113.6666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>115.45</v>
       </c>
       <c r="I44" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L44" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="M44" t="n">
-        <v>113.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>115.1666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>116</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,55 +2072,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C45" t="n">
         <v>111</v>
       </c>
       <c r="D45" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E45" t="n">
         <v>111</v>
       </c>
       <c r="F45" t="n">
-        <v>1413</v>
+        <v>3659.5104</v>
       </c>
       <c r="G45" t="n">
-        <v>115.5166666666667</v>
+        <v>113.4</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>115.4833333333333</v>
       </c>
       <c r="I45" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>55</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L45" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="M45" t="n">
-        <v>113.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>114.9666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
-        <v>116</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2713,50 +2116,31 @@
         <v>111</v>
       </c>
       <c r="D46" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46" t="n">
         <v>111</v>
       </c>
       <c r="F46" t="n">
-        <v>2514</v>
+        <v>1413</v>
       </c>
       <c r="G46" t="n">
-        <v>115.55</v>
+        <v>113.2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>115.5166666666667</v>
       </c>
       <c r="I46" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>55</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L46" t="n">
-        <v>112.6</v>
-      </c>
-      <c r="M46" t="n">
-        <v>113.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>114.8333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>116</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
-        <v>0.9518965517241379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2764,49 +2148,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" t="n">
         <v>111</v>
       </c>
       <c r="D47" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" t="n">
         <v>111</v>
       </c>
       <c r="F47" t="n">
-        <v>263</v>
+        <v>2514</v>
       </c>
       <c r="G47" t="n">
-        <v>115.5833333333333</v>
+        <v>113.0666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>115.55</v>
       </c>
       <c r="I47" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>55</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L47" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="M47" t="n">
-        <v>113.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>114.6</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2815,49 +2186,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" t="n">
         <v>111</v>
       </c>
       <c r="D48" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E48" t="n">
         <v>111</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="G48" t="n">
-        <v>115.6166666666667</v>
+        <v>112.8</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>115.5833333333333</v>
       </c>
       <c r="I48" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>55</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L48" t="n">
-        <v>112</v>
-      </c>
-      <c r="M48" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>114.3333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2869,46 +2227,33 @@
         <v>111</v>
       </c>
       <c r="C49" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F49" t="n">
-        <v>5032.184</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
-        <v>115.6666666666667</v>
+        <v>112.5333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>115.6166666666667</v>
       </c>
       <c r="I49" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>56</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L49" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="M49" t="n">
-        <v>112.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>114.0666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,46 +2265,33 @@
         <v>111</v>
       </c>
       <c r="C50" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" t="n">
         <v>112</v>
       </c>
       <c r="E50" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" t="n">
-        <v>3014</v>
+        <v>5032.184</v>
       </c>
       <c r="G50" t="n">
-        <v>115.6833333333333</v>
+        <v>112.3333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>115.6666666666667</v>
       </c>
       <c r="I50" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>57</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L50" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="M50" t="n">
-        <v>112.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>113.7666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2980,37 +2312,24 @@
         <v>111</v>
       </c>
       <c r="F51" t="n">
-        <v>13</v>
+        <v>3014</v>
       </c>
       <c r="G51" t="n">
-        <v>115.7166666666667</v>
+        <v>112.2</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>115.6833333333333</v>
       </c>
       <c r="I51" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>57</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L51" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="M51" t="n">
-        <v>112.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>113.5666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3025,43 +2344,30 @@
         <v>111</v>
       </c>
       <c r="D52" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" t="n">
         <v>111</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G52" t="n">
-        <v>115.7666666666667</v>
+        <v>112.1333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>115.7166666666667</v>
       </c>
       <c r="I52" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>57</v>
-      </c>
-      <c r="K52" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L52" t="n">
-        <v>111</v>
-      </c>
-      <c r="M52" t="n">
-        <v>112.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>113.3666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,46 +2379,33 @@
         <v>111</v>
       </c>
       <c r="C53" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" t="n">
         <v>111</v>
       </c>
       <c r="F53" t="n">
-        <v>1959</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>115.8333333333333</v>
+        <v>111.8666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>115.7666666666667</v>
       </c>
       <c r="I53" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>58</v>
-      </c>
-      <c r="K53" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="M53" t="n">
-        <v>112.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,46 +2417,33 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D54" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E54" t="n">
         <v>111</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1959</v>
       </c>
       <c r="G54" t="n">
-        <v>115.8166666666667</v>
+        <v>111.8</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>115.8333333333333</v>
       </c>
       <c r="I54" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>59</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="M54" t="n">
-        <v>112.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>113.0333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3175,46 +2455,33 @@
         <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" t="n">
         <v>111</v>
       </c>
       <c r="F55" t="n">
-        <v>990.25</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>115.85</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>115.8166666666667</v>
       </c>
       <c r="I55" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>60</v>
-      </c>
-      <c r="K55" t="n">
-        <v>20</v>
-      </c>
-      <c r="L55" t="n">
-        <v>111.3</v>
-      </c>
-      <c r="M55" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3223,10 +2490,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="n">
         <v>112</v>
@@ -3235,37 +2502,24 @@
         <v>111</v>
       </c>
       <c r="F56" t="n">
-        <v>210</v>
+        <v>990.25</v>
       </c>
       <c r="G56" t="n">
+        <v>111.4666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>115.85</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>61</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>111.3</v>
-      </c>
-      <c r="M56" t="n">
-        <v>111.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>112.7333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,49 +2528,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" t="n">
         <v>111</v>
       </c>
       <c r="D57" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="n">
         <v>111</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="G57" t="n">
-        <v>115.7833333333333</v>
+        <v>111.4</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>115.85</v>
       </c>
       <c r="I57" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>61</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>111.3</v>
-      </c>
-      <c r="M57" t="n">
-        <v>111.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>112.5666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3325,49 +2566,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D58" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E58" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" t="n">
-        <v>7208.9866</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
-        <v>115.8166666666667</v>
+        <v>111.1333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>115.7833333333333</v>
       </c>
       <c r="I58" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>65</v>
-      </c>
-      <c r="K58" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>111.7</v>
-      </c>
-      <c r="M58" t="n">
-        <v>111.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>112.5666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3376,49 +2604,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C59" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D59" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>7208.9866</v>
       </c>
       <c r="G59" t="n">
-        <v>115.75</v>
+        <v>111.4666666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>115.8166666666667</v>
       </c>
       <c r="I59" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>70</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L59" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="M59" t="n">
-        <v>111.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,46 +2645,33 @@
         <v>110</v>
       </c>
       <c r="C60" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D60" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E60" t="n">
         <v>110</v>
       </c>
       <c r="F60" t="n">
-        <v>37336.1052</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>115.7166666666667</v>
+        <v>111.4</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>115.75</v>
       </c>
       <c r="I60" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>72</v>
-      </c>
-      <c r="K60" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L60" t="n">
-        <v>111.6</v>
-      </c>
-      <c r="M60" t="n">
-        <v>111.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>112.3333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,7 +2680,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" t="n">
         <v>112</v>
@@ -3487,40 +2689,27 @@
         <v>114</v>
       </c>
       <c r="E61" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>37336.1052</v>
       </c>
       <c r="G61" t="n">
-        <v>115.6666666666667</v>
+        <v>111.4666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>115.7166666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>72</v>
-      </c>
-      <c r="K61" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L61" t="n">
-        <v>111.7</v>
-      </c>
-      <c r="M61" t="n">
-        <v>111.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>112.3</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3535,43 +2724,30 @@
         <v>112</v>
       </c>
       <c r="D62" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" t="n">
         <v>112</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>115.5666666666667</v>
+        <v>111.5333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>115.6666666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>72</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>111.8</v>
-      </c>
-      <c r="M62" t="n">
-        <v>111.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3586,43 +2762,30 @@
         <v>112</v>
       </c>
       <c r="D63" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" t="n">
         <v>112</v>
       </c>
       <c r="F63" t="n">
-        <v>3114.0973</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>115.4333333333333</v>
+        <v>111.6</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>115.5666666666667</v>
       </c>
       <c r="I63" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>72</v>
-      </c>
-      <c r="K63" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L63" t="n">
-        <v>111.8</v>
-      </c>
-      <c r="M63" t="n">
-        <v>111.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,37 +2806,24 @@
         <v>112</v>
       </c>
       <c r="F64" t="n">
-        <v>3050.8849</v>
+        <v>3114.0973</v>
       </c>
       <c r="G64" t="n">
-        <v>115.2666666666667</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>115.4333333333333</v>
       </c>
       <c r="I64" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>72</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="M64" t="n">
-        <v>111.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>112</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,7 +2835,7 @@
         <v>112</v>
       </c>
       <c r="C65" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" t="n">
         <v>113</v>
@@ -3694,37 +2844,24 @@
         <v>112</v>
       </c>
       <c r="F65" t="n">
-        <v>6633.316</v>
+        <v>3050.8849</v>
       </c>
       <c r="G65" t="n">
-        <v>115.0833333333333</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>115.2666666666667</v>
       </c>
       <c r="I65" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>73</v>
-      </c>
-      <c r="K65" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L65" t="n">
-        <v>112</v>
-      </c>
-      <c r="M65" t="n">
-        <v>111.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>112</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3733,10 +2870,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D66" t="n">
         <v>113</v>
@@ -3745,37 +2882,24 @@
         <v>112</v>
       </c>
       <c r="F66" t="n">
-        <v>27306.0113</v>
+        <v>6633.316</v>
       </c>
       <c r="G66" t="n">
-        <v>114.8833333333333</v>
+        <v>111.8</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>115.0833333333333</v>
       </c>
       <c r="I66" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>74</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L66" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="M66" t="n">
-        <v>111.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>112</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3784,49 +2908,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C67" t="n">
         <v>112</v>
       </c>
       <c r="D67" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E67" t="n">
         <v>112</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>27306.0113</v>
       </c>
       <c r="G67" t="n">
-        <v>114.6666666666667</v>
+        <v>111.8666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>114.8833333333333</v>
       </c>
       <c r="I67" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>74</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L67" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="M67" t="n">
-        <v>111.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3847,37 +2958,24 @@
         <v>112</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>114.45</v>
+        <v>111.9333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>114.6666666666667</v>
       </c>
       <c r="I68" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>74</v>
-      </c>
-      <c r="K68" t="n">
-        <v>50</v>
-      </c>
-      <c r="L68" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="M68" t="n">
-        <v>111.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>111.8666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,37 +2996,28 @@
         <v>112</v>
       </c>
       <c r="F69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>114.2333333333333</v>
+        <v>111.9333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>114.45</v>
       </c>
       <c r="I69" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="L69" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="M69" t="n">
-        <v>111.8</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>111.8333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,37 +3038,32 @@
         <v>112</v>
       </c>
       <c r="F70" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>114.05</v>
+        <v>112</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>114.2333333333333</v>
       </c>
       <c r="I70" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="L70" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="M70" t="n">
-        <v>111.85</v>
+        <v>112</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N70" t="n">
-        <v>111.7333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,37 +3084,32 @@
         <v>112</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G71" t="n">
-        <v>113.9</v>
+        <v>112</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>114.05</v>
       </c>
       <c r="I71" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="L71" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="M71" t="n">
-        <v>111.9</v>
+        <v>112</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N71" t="n">
-        <v>111.7333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4039,49 +3118,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E72" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F72" t="n">
-        <v>20232.4347</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>113.75</v>
+        <v>112.0666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>113.9</v>
       </c>
       <c r="I72" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>33.33333333333333</v>
+        <v>112</v>
       </c>
       <c r="L72" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="M72" t="n">
-        <v>112</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>111.6666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4096,43 +3166,38 @@
         <v>113</v>
       </c>
       <c r="D73" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E73" t="n">
         <v>113</v>
       </c>
       <c r="F73" t="n">
-        <v>8849.557500000001</v>
+        <v>20232.4347</v>
       </c>
       <c r="G73" t="n">
-        <v>113.6166666666667</v>
+        <v>112.2</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>113.75</v>
       </c>
       <c r="I73" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>33.33333333333333</v>
+        <v>112</v>
       </c>
       <c r="L73" t="n">
-        <v>112.3</v>
-      </c>
-      <c r="M73" t="n">
-        <v>112.05</v>
+        <v>112</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N73" t="n">
-        <v>111.7666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4153,37 +3218,32 @@
         <v>113</v>
       </c>
       <c r="F74" t="n">
-        <v>10512.7805</v>
+        <v>8849.557500000001</v>
       </c>
       <c r="G74" t="n">
-        <v>113.5</v>
+        <v>112.0666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>113.6166666666667</v>
       </c>
       <c r="I74" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="L74" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="M74" t="n">
-        <v>112.15</v>
+        <v>112</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N74" t="n">
-        <v>111.8333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,37 +3264,24 @@
         <v>113</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>10512.7805</v>
       </c>
       <c r="G75" t="n">
-        <v>113.4333333333333</v>
+        <v>112.2666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>113.5</v>
       </c>
       <c r="I75" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>75</v>
-      </c>
-      <c r="K75" t="n">
-        <v>100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="M75" t="n">
-        <v>112.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4255,37 +3302,24 @@
         <v>113</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>113.4</v>
+        <v>112.3333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>113.4333333333333</v>
       </c>
       <c r="I76" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>75</v>
-      </c>
-      <c r="K76" t="n">
-        <v>100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="M76" t="n">
-        <v>112.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>111.9666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,37 +3340,28 @@
         <v>113</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>113.3166666666667</v>
+        <v>112.4</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>113.4</v>
       </c>
       <c r="I77" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="L77" t="n">
-        <v>112.6</v>
-      </c>
-      <c r="M77" t="n">
-        <v>112.4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>112.0333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4357,37 +3382,32 @@
         <v>113</v>
       </c>
       <c r="F78" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G78" t="n">
-        <v>113.2166666666667</v>
+        <v>112.4666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>113.3166666666667</v>
       </c>
       <c r="I78" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="L78" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="M78" t="n">
-        <v>112.3</v>
+        <v>113</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N78" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,37 +3428,30 @@
         <v>113</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G79" t="n">
-        <v>113.1</v>
+        <v>112.5333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>113.2166666666667</v>
       </c>
       <c r="I79" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>75</v>
-      </c>
-      <c r="K79" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>112.8</v>
-      </c>
-      <c r="M79" t="n">
-        <v>112.45</v>
+        <v>113</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N79" t="n">
-        <v>112.1333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,37 +3472,28 @@
         <v>113</v>
       </c>
       <c r="F80" t="n">
-        <v>3894.2068</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>112.9833333333333</v>
+        <v>112.6</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>113.1</v>
       </c>
       <c r="I80" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="L80" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="M80" t="n">
-        <v>112.5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,49 +3502,44 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1</v>
+        <v>3894.2068</v>
       </c>
       <c r="G81" t="n">
-        <v>112.9333333333333</v>
+        <v>112.6</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>112.9833333333333</v>
       </c>
       <c r="I81" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="L81" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="M81" t="n">
-        <v>112.6</v>
+        <v>113</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N81" t="n">
-        <v>112.3</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4549,49 +3548,44 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D82" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E82" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F82" t="n">
-        <v>10001</v>
+        <v>1.1</v>
       </c>
       <c r="G82" t="n">
+        <v>112.7333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>112.9333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="L82" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="M82" t="n">
-        <v>112.85</v>
+        <v>113</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N82" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4600,49 +3594,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>113</v>
+      </c>
+      <c r="C83" t="n">
         <v>117</v>
-      </c>
-      <c r="C83" t="n">
-        <v>115</v>
       </c>
       <c r="D83" t="n">
         <v>117</v>
       </c>
       <c r="E83" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F83" t="n">
-        <v>1008</v>
+        <v>10001</v>
       </c>
       <c r="G83" t="n">
-        <v>112.9</v>
+        <v>113.0666666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>112.9333333333333</v>
       </c>
       <c r="I83" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>81</v>
-      </c>
-      <c r="K83" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L83" t="n">
-        <v>113.7</v>
-      </c>
-      <c r="M83" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>112.6</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,46 +3635,33 @@
         <v>117</v>
       </c>
       <c r="C84" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D84" t="n">
         <v>117</v>
       </c>
       <c r="E84" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1</v>
+        <v>1008</v>
       </c>
       <c r="G84" t="n">
-        <v>112.9166666666667</v>
+        <v>113.2666666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>112.9</v>
       </c>
       <c r="I84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>83</v>
-      </c>
-      <c r="K84" t="n">
-        <v>50</v>
-      </c>
-      <c r="L84" t="n">
-        <v>114.1</v>
-      </c>
-      <c r="M84" t="n">
-        <v>113.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>112.8</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,49 +3670,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C85" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D85" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F85" t="n">
-        <v>713.9246000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G85" t="n">
-        <v>112.8666666666667</v>
+        <v>113.6</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>112.9166666666667</v>
       </c>
       <c r="I85" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>87</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>114.1</v>
-      </c>
-      <c r="M85" t="n">
-        <v>113.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>112.8333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,49 +3708,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E86" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>713.9246000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>112.8333333333333</v>
+        <v>113.6666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>112.8666666666667</v>
       </c>
       <c r="I86" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>88</v>
-      </c>
-      <c r="K86" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L86" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="M86" t="n">
-        <v>113.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>112.9333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,49 +3746,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D87" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>112.7833333333333</v>
+        <v>113.8</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>112.8333333333333</v>
       </c>
       <c r="I87" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>89</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="M87" t="n">
-        <v>113.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>113</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,37 +3796,24 @@
         <v>113</v>
       </c>
       <c r="F88" t="n">
-        <v>16785.1027</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>112.75</v>
+        <v>113.8</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>112.7833333333333</v>
       </c>
       <c r="I88" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>89</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="M88" t="n">
-        <v>113.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>112.9333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,49 +3822,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89" t="n">
         <v>113</v>
       </c>
       <c r="D89" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E89" t="n">
         <v>113</v>
       </c>
       <c r="F89" t="n">
-        <v>4425.7787</v>
+        <v>16785.1027</v>
       </c>
       <c r="G89" t="n">
-        <v>112.7166666666667</v>
+        <v>113.8</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>112.75</v>
       </c>
       <c r="I89" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>89</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="M89" t="n">
-        <v>113.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>113.0333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4957,49 +3860,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C90" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D90" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E90" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>4425.7787</v>
       </c>
       <c r="G90" t="n">
-        <v>112.6666666666667</v>
+        <v>113.8</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>112.7166666666667</v>
       </c>
       <c r="I90" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>91</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L90" t="n">
-        <v>114</v>
-      </c>
-      <c r="M90" t="n">
-        <v>113.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
-        <v>113</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,49 +3898,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D91" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E91" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
+        <v>113.6666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>112.6666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>93</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L91" t="n">
-        <v>113.9</v>
-      </c>
-      <c r="M91" t="n">
-        <v>113.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
-        <v>113.0333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5059,49 +3936,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D92" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E92" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F92" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
+        <v>113.6666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>112.6666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="L92" t="n">
-        <v>113.7</v>
-      </c>
-      <c r="M92" t="n">
-        <v>113.6</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>113.1333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,49 +3978,44 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C93" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D93" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E93" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="G93" t="n">
-        <v>112.6166666666667</v>
+        <v>113.8</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="I93" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>-33.33333333333333</v>
+        <v>113</v>
       </c>
       <c r="L93" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="M93" t="n">
-        <v>113.55</v>
+        <v>111</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N93" t="n">
-        <v>113.1333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5161,49 +4024,42 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C94" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D94" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E94" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
+        <v>113.7333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>112.6166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>101</v>
-      </c>
-      <c r="K94" t="n">
-        <v>14.28571428571428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="M94" t="n">
-        <v>113.65</v>
+        <v>111</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N94" t="n">
-        <v>113.2333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,37 +4080,24 @@
         <v>115</v>
       </c>
       <c r="F95" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>112.65</v>
+        <v>113.8666666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>112.6166666666667</v>
       </c>
       <c r="I95" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>101</v>
-      </c>
-      <c r="K95" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L95" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="M95" t="n">
-        <v>113.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5275,37 +4118,24 @@
         <v>115</v>
       </c>
       <c r="F96" t="n">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="G96" t="n">
-        <v>112.7</v>
+        <v>114</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>112.65</v>
       </c>
       <c r="I96" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>101</v>
-      </c>
-      <c r="K96" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L96" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="M96" t="n">
-        <v>113.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,49 +4144,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C97" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D97" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E97" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F97" t="n">
-        <v>3115.7781</v>
+        <v>1.1</v>
       </c>
       <c r="G97" t="n">
-        <v>112.65</v>
+        <v>114.0666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>112.7</v>
       </c>
       <c r="I97" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>104</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L97" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="M97" t="n">
-        <v>113.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,49 +4182,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D98" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E98" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F98" t="n">
-        <v>117</v>
+        <v>3115.7781</v>
       </c>
       <c r="G98" t="n">
-        <v>112.6666666666667</v>
+        <v>113.7333333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>112.65</v>
       </c>
       <c r="I98" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>106</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L98" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="M98" t="n">
-        <v>113.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>113.4666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,49 +4220,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C99" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D99" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E99" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F99" t="n">
-        <v>1784.6747</v>
+        <v>117</v>
       </c>
       <c r="G99" t="n">
-        <v>112.6333333333333</v>
+        <v>113.6666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="I99" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>109</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="M99" t="n">
-        <v>113.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>113.4333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,46 +4261,33 @@
         <v>111</v>
       </c>
       <c r="C100" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D100" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E100" t="n">
         <v>111</v>
       </c>
       <c r="F100" t="n">
-        <v>295.9294</v>
+        <v>1784.6747</v>
       </c>
       <c r="G100" t="n">
-        <v>112.6</v>
+        <v>113.2666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>112.6333333333333</v>
       </c>
       <c r="I100" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>111</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="M100" t="n">
-        <v>113.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>113.4666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5521,46 +4299,39 @@
         <v>111</v>
       </c>
       <c r="C101" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D101" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" t="n">
         <v>111</v>
       </c>
       <c r="F101" t="n">
-        <v>55.5</v>
+        <v>295.9294</v>
       </c>
       <c r="G101" t="n">
-        <v>112.5833333333333</v>
+        <v>113.2666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>112.6</v>
       </c>
       <c r="I101" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L101" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="M101" t="n">
-        <v>113.6</v>
+        <v>111</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="N101" t="n">
-        <v>113.4333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5569,49 +4340,42 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C102" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D102" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E102" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>55.5</v>
       </c>
       <c r="G102" t="n">
-        <v>112.55</v>
+        <v>113.0666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>112.5833333333333</v>
       </c>
       <c r="I102" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L102" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="M102" t="n">
-        <v>113.4</v>
+        <v>113</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N102" t="n">
-        <v>113.4333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5623,46 +4387,39 @@
         <v>113</v>
       </c>
       <c r="C103" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E103" t="n">
         <v>113</v>
       </c>
       <c r="F103" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>112.6166666666667</v>
+        <v>113.0666666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>112.55</v>
       </c>
       <c r="I103" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L103" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="M103" t="n">
-        <v>113.35</v>
+        <v>111</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N103" t="n">
-        <v>113.4666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5671,7 +4428,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" t="n">
         <v>114</v>
@@ -5680,40 +4437,33 @@
         <v>114</v>
       </c>
       <c r="E104" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="G104" t="n">
-        <v>112.6666666666667</v>
+        <v>113.1333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>112.6166666666667</v>
       </c>
       <c r="I104" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L104" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="M104" t="n">
-        <v>113.2</v>
+        <v>113</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N104" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,37 +4484,30 @@
         <v>114</v>
       </c>
       <c r="F105" t="n">
-        <v>20766</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>112.7166666666667</v>
+        <v>113.2</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="I105" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L105" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="M105" t="n">
-        <v>113.25</v>
+        <v>114</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N105" t="n">
-        <v>113.5333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5776,46 +4519,39 @@
         <v>114</v>
       </c>
       <c r="C106" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D106" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E106" t="n">
         <v>114</v>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>20766</v>
       </c>
       <c r="G106" t="n">
-        <v>112.7833333333333</v>
+        <v>113.4</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>112.7166666666667</v>
       </c>
       <c r="I106" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L106" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="M106" t="n">
-        <v>113.3</v>
+        <v>114</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N106" t="n">
-        <v>113.6</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,49 +4560,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C107" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D107" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F107" t="n">
-        <v>7273.6017</v>
+        <v>5</v>
       </c>
       <c r="G107" t="n">
-        <v>112.8166666666667</v>
+        <v>113.5333333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>112.7833333333333</v>
       </c>
       <c r="I107" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>119</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L107" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="M107" t="n">
-        <v>113.3</v>
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N107" t="n">
-        <v>113.6</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5875,49 +4602,42 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C108" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D108" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E108" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>7273.6017</v>
       </c>
       <c r="G108" t="n">
-        <v>112.8833333333333</v>
+        <v>113.4</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>112.8166666666667</v>
       </c>
       <c r="I108" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L108" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="M108" t="n">
-        <v>113.4</v>
+        <v>115</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N108" t="n">
-        <v>113.6666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,49 +4646,42 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C109" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D109" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E109" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F109" t="n">
-        <v>2056.0137</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>112.9166666666667</v>
+        <v>113.6</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>112.8833333333333</v>
       </c>
       <c r="I109" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L109" t="n">
-        <v>113.6</v>
-      </c>
-      <c r="M109" t="n">
-        <v>113.45</v>
+        <v>113</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N109" t="n">
-        <v>113.7</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5980,46 +4693,39 @@
         <v>114</v>
       </c>
       <c r="C110" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D110" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E110" t="n">
         <v>114</v>
       </c>
       <c r="F110" t="n">
-        <v>2364</v>
+        <v>2056.0137</v>
       </c>
       <c r="G110" t="n">
-        <v>112.9833333333333</v>
+        <v>113.5333333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>112.9166666666667</v>
       </c>
       <c r="I110" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>40</v>
-      </c>
-      <c r="L110" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="M110" t="n">
-        <v>113.65</v>
+        <v>115</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N110" t="n">
-        <v>113.7666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6028,7 +4734,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" t="n">
         <v>115</v>
@@ -6037,570 +4743,31 @@
         <v>115</v>
       </c>
       <c r="E111" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2364</v>
       </c>
       <c r="G111" t="n">
-        <v>113.05</v>
+        <v>113.5333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>112.9833333333333</v>
       </c>
       <c r="I111" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>123</v>
-      </c>
-      <c r="K111" t="n">
-        <v>25</v>
-      </c>
-      <c r="L111" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="M111" t="n">
-        <v>113.75</v>
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N111" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>114</v>
-      </c>
-      <c r="C112" t="n">
-        <v>113</v>
-      </c>
-      <c r="D112" t="n">
-        <v>114</v>
-      </c>
-      <c r="E112" t="n">
-        <v>113</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1524.3532</v>
-      </c>
-      <c r="G112" t="n">
-        <v>113.0833333333333</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>125</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L112" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="M112" t="n">
-        <v>113.65</v>
-      </c>
-      <c r="N112" t="n">
-        <v>113.6666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>115</v>
-      </c>
-      <c r="C113" t="n">
-        <v>115</v>
-      </c>
-      <c r="D113" t="n">
-        <v>115</v>
-      </c>
-      <c r="E113" t="n">
-        <v>115</v>
-      </c>
-      <c r="F113" t="n">
-        <v>11</v>
-      </c>
-      <c r="G113" t="n">
-        <v>113.1333333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>127</v>
-      </c>
-      <c r="K113" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L113" t="n">
-        <v>114.3</v>
-      </c>
-      <c r="M113" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="N113" t="n">
-        <v>113.6666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>115</v>
-      </c>
-      <c r="C114" t="n">
-        <v>115</v>
-      </c>
-      <c r="D114" t="n">
-        <v>115</v>
-      </c>
-      <c r="E114" t="n">
-        <v>115</v>
-      </c>
-      <c r="F114" t="n">
-        <v>8782.652099999999</v>
-      </c>
-      <c r="G114" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>127</v>
-      </c>
-      <c r="K114" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L114" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="M114" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="N114" t="n">
-        <v>113.6</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>116</v>
-      </c>
-      <c r="C115" t="n">
-        <v>116</v>
-      </c>
-      <c r="D115" t="n">
-        <v>116</v>
-      </c>
-      <c r="E115" t="n">
-        <v>116</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" t="n">
-        <v>113.2666666666667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>128</v>
-      </c>
-      <c r="K115" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L115" t="n">
-        <v>114.6</v>
-      </c>
-      <c r="M115" t="n">
-        <v>113.85</v>
-      </c>
-      <c r="N115" t="n">
-        <v>113.7</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>116</v>
-      </c>
-      <c r="C116" t="n">
-        <v>119</v>
-      </c>
-      <c r="D116" t="n">
-        <v>119</v>
-      </c>
-      <c r="E116" t="n">
-        <v>116</v>
-      </c>
-      <c r="F116" t="n">
-        <v>8760</v>
-      </c>
-      <c r="G116" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>131</v>
-      </c>
-      <c r="K116" t="n">
-        <v>50</v>
-      </c>
-      <c r="L116" t="n">
-        <v>115</v>
-      </c>
-      <c r="M116" t="n">
-        <v>114.05</v>
-      </c>
-      <c r="N116" t="n">
-        <v>113.8666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>117</v>
-      </c>
-      <c r="C117" t="n">
-        <v>116</v>
-      </c>
-      <c r="D117" t="n">
-        <v>119</v>
-      </c>
-      <c r="E117" t="n">
-        <v>116</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3720.5235</v>
-      </c>
-      <c r="G117" t="n">
-        <v>113.4833333333333</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>134</v>
-      </c>
-      <c r="K117" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L117" t="n">
-        <v>115.3</v>
-      </c>
-      <c r="M117" t="n">
-        <v>114.25</v>
-      </c>
-      <c r="N117" t="n">
-        <v>113.9666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>117</v>
-      </c>
-      <c r="C118" t="n">
-        <v>118</v>
-      </c>
-      <c r="D118" t="n">
-        <v>118</v>
-      </c>
-      <c r="E118" t="n">
-        <v>117</v>
-      </c>
-      <c r="F118" t="n">
-        <v>323</v>
-      </c>
-      <c r="G118" t="n">
-        <v>113.5333333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>136</v>
-      </c>
-      <c r="K118" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L118" t="n">
-        <v>115.6</v>
-      </c>
-      <c r="M118" t="n">
-        <v>114.45</v>
-      </c>
-      <c r="N118" t="n">
-        <v>114.1333333333333</v>
-      </c>
-      <c r="O118" t="n">
-        <v>116</v>
-      </c>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="n">
-        <v>116</v>
-      </c>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>116</v>
-      </c>
-      <c r="C119" t="n">
-        <v>117</v>
-      </c>
-      <c r="D119" t="n">
-        <v>117</v>
-      </c>
-      <c r="E119" t="n">
-        <v>115</v>
-      </c>
-      <c r="F119" t="n">
-        <v>4292.3362</v>
-      </c>
-      <c r="G119" t="n">
-        <v>113.65</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>137</v>
-      </c>
-      <c r="K119" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L119" t="n">
-        <v>115.9</v>
-      </c>
-      <c r="M119" t="n">
-        <v>114.75</v>
-      </c>
-      <c r="N119" t="n">
-        <v>114.2666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>116</v>
-      </c>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>114</v>
-      </c>
-      <c r="C120" t="n">
-        <v>115</v>
-      </c>
-      <c r="D120" t="n">
-        <v>115</v>
-      </c>
-      <c r="E120" t="n">
-        <v>114</v>
-      </c>
-      <c r="F120" t="n">
-        <v>7026.8596</v>
-      </c>
-      <c r="G120" t="n">
-        <v>113.7</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>139</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>115.9</v>
-      </c>
-      <c r="M120" t="n">
-        <v>114.85</v>
-      </c>
-      <c r="N120" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="n">
-        <v>116</v>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>115</v>
-      </c>
-      <c r="C121" t="n">
-        <v>115</v>
-      </c>
-      <c r="D121" t="n">
-        <v>115</v>
-      </c>
-      <c r="E121" t="n">
-        <v>115</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1401.6608</v>
-      </c>
-      <c r="G121" t="n">
-        <v>113.75</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J121" t="n">
-        <v>139</v>
-      </c>
-      <c r="K121" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L121" t="n">
-        <v>115.9</v>
-      </c>
-      <c r="M121" t="n">
-        <v>115.05</v>
-      </c>
-      <c r="N121" t="n">
-        <v>114.4666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="n">
-        <v>116</v>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>3458.8056</v>
+        <v>1805.6409</v>
       </c>
       <c r="G2" t="n">
-        <v>111.0666666666667</v>
+        <v>171275.8097637137</v>
       </c>
       <c r="H2" t="n">
-        <v>112.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D3" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" t="n">
-        <v>63151.9738</v>
+        <v>313.7178</v>
       </c>
       <c r="G3" t="n">
-        <v>111.6666666666667</v>
+        <v>171589.5275637137</v>
       </c>
       <c r="H3" t="n">
-        <v>112.6</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D4" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E4" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F4" t="n">
-        <v>31110.4</v>
+        <v>18616.1483</v>
       </c>
       <c r="G4" t="n">
-        <v>112.4</v>
+        <v>152973.3792637137</v>
       </c>
       <c r="H4" t="n">
-        <v>112.8</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D5" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F5" t="n">
-        <v>52285.3983</v>
+        <v>5548.5924</v>
       </c>
       <c r="G5" t="n">
-        <v>113.2666666666667</v>
+        <v>152973.3792637137</v>
       </c>
       <c r="H5" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C6" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D6" t="n">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E6" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F6" t="n">
-        <v>37482.9993</v>
+        <v>337</v>
       </c>
       <c r="G6" t="n">
-        <v>114.2</v>
+        <v>152973.3792637137</v>
       </c>
       <c r="H6" t="n">
-        <v>113.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C7" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D7" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E7" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F7" t="n">
-        <v>41428.7538</v>
+        <v>0.4972</v>
       </c>
       <c r="G7" t="n">
-        <v>115.2</v>
+        <v>152973.3792637137</v>
       </c>
       <c r="H7" t="n">
-        <v>113.55</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C8" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D8" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E8" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>116.3333333333333</v>
+        <v>152974.3792637137</v>
       </c>
       <c r="H8" t="n">
-        <v>113.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E9" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F9" t="n">
-        <v>16209.364</v>
+        <v>950.376</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4666666666667</v>
+        <v>153924.7552637137</v>
       </c>
       <c r="H9" t="n">
-        <v>114.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D10" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E10" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F10" t="n">
-        <v>12468.06179685039</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>118.3333333333333</v>
+        <v>153922.7552637137</v>
       </c>
       <c r="H10" t="n">
-        <v>114.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C11" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D11" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E11" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F11" t="n">
-        <v>1785.2279</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>119.2</v>
+        <v>153923.7552637137</v>
       </c>
       <c r="H11" t="n">
-        <v>114.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="K11" t="n">
+        <v>112</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +787,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C12" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E12" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F12" t="n">
-        <v>12547.24042580645</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>119.8666666666667</v>
+        <v>153923.7552637137</v>
       </c>
       <c r="H12" t="n">
-        <v>114.7333333333333</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>115</v>
+      </c>
+      <c r="K12" t="n">
+        <v>112</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +830,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C13" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D13" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F13" t="n">
-        <v>30440.4254</v>
+        <v>24667.9579</v>
       </c>
       <c r="G13" t="n">
-        <v>120.3333333333333</v>
+        <v>129255.7973637137</v>
       </c>
       <c r="H13" t="n">
-        <v>114.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>112</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +871,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C14" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D14" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E14" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F14" t="n">
-        <v>13001.31076229508</v>
+        <v>1803.8753</v>
       </c>
       <c r="G14" t="n">
-        <v>120.8666666666667</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H14" t="n">
-        <v>114.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>112</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +912,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E15" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F15" t="n">
-        <v>2393.2708</v>
+        <v>333.3454</v>
       </c>
       <c r="G15" t="n">
-        <v>121.2666666666667</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H15" t="n">
-        <v>115.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>112</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +953,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D16" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F16" t="n">
-        <v>60439.3063</v>
+        <v>18698.7775</v>
       </c>
       <c r="G16" t="n">
-        <v>121.4666666666667</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H16" t="n">
-        <v>115.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>112</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +994,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C17" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D17" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E17" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F17" t="n">
-        <v>7866.0765</v>
+        <v>21.5596</v>
       </c>
       <c r="G17" t="n">
-        <v>121.4666666666667</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H17" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>112</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1035,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C18" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D18" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E18" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F18" t="n">
-        <v>847.457627118644</v>
+        <v>117.0671</v>
       </c>
       <c r="G18" t="n">
-        <v>121.4666666666667</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H18" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>112</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1076,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C19" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D19" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E19" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F19" t="n">
-        <v>20783.3782</v>
+        <v>151.4592</v>
       </c>
       <c r="G19" t="n">
-        <v>121.4</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H19" t="n">
-        <v>115.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>112</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1117,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E20" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F20" t="n">
-        <v>19240.4997</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>121.2666666666667</v>
+        <v>127452.9220637137</v>
       </c>
       <c r="H20" t="n">
-        <v>115.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>112</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1158,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C21" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D21" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F21" t="n">
-        <v>3679.0084</v>
+        <v>1111.3066</v>
       </c>
       <c r="G21" t="n">
-        <v>121</v>
+        <v>126341.6154637137</v>
       </c>
       <c r="H21" t="n">
-        <v>115.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>110</v>
+      </c>
+      <c r="K21" t="n">
+        <v>112</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1201,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C22" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D22" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E22" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F22" t="n">
-        <v>11017.5844</v>
+        <v>2.1958</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5333333333333</v>
+        <v>126339.4196637137</v>
       </c>
       <c r="H22" t="n">
-        <v>115.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>109</v>
+      </c>
+      <c r="K22" t="n">
+        <v>112</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1244,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C23" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D23" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E23" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F23" t="n">
-        <v>62.6776</v>
+        <v>4652.5001</v>
       </c>
       <c r="G23" t="n">
-        <v>120</v>
+        <v>126339.4196637137</v>
       </c>
       <c r="H23" t="n">
-        <v>115.15</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>108</v>
+      </c>
+      <c r="K23" t="n">
+        <v>112</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1287,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C24" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D24" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E24" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F24" t="n">
-        <v>7800</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>119.4666666666667</v>
+        <v>126340.4196637137</v>
       </c>
       <c r="H24" t="n">
-        <v>115.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>112</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1328,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C25" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D25" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E25" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F25" t="n">
-        <v>8043</v>
+        <v>91.7431</v>
       </c>
       <c r="G25" t="n">
-        <v>118.8666666666667</v>
+        <v>126248.6765637137</v>
       </c>
       <c r="H25" t="n">
-        <v>115.2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>112</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1369,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C26" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D26" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E26" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F26" t="n">
-        <v>3669.8109</v>
+        <v>5535.5769</v>
       </c>
       <c r="G26" t="n">
-        <v>118.4</v>
+        <v>131784.2534637137</v>
       </c>
       <c r="H26" t="n">
-        <v>115.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>112</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1410,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C27" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F27" t="n">
-        <v>1025.0621</v>
+        <v>44816.4391</v>
       </c>
       <c r="G27" t="n">
-        <v>118.0666666666667</v>
+        <v>176600.6925637137</v>
       </c>
       <c r="H27" t="n">
-        <v>115.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>112</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1451,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D28" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F28" t="n">
-        <v>743.2608</v>
+        <v>16806.9764</v>
       </c>
       <c r="G28" t="n">
-        <v>117.6666666666667</v>
+        <v>159793.7161637137</v>
       </c>
       <c r="H28" t="n">
-        <v>115.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>112</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1492,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E29" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" t="n">
-        <v>580.1292</v>
+        <v>2217.0476</v>
       </c>
       <c r="G29" t="n">
-        <v>117.2666666666667</v>
+        <v>162010.7637637137</v>
       </c>
       <c r="H29" t="n">
-        <v>115.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>112</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1505,33 +1536,36 @@
         <v>115</v>
       </c>
       <c r="C30" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" t="n">
         <v>115</v>
       </c>
       <c r="E30" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" t="n">
-        <v>5418.3347</v>
+        <v>1692.8228</v>
       </c>
       <c r="G30" t="n">
-        <v>116.9333333333333</v>
+        <v>162010.7637637137</v>
       </c>
       <c r="H30" t="n">
-        <v>115.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>112</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1574,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C31" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F31" t="n">
-        <v>16149.0438</v>
+        <v>3458.8056</v>
       </c>
       <c r="G31" t="n">
-        <v>116.7333333333333</v>
+        <v>165469.5693637137</v>
       </c>
       <c r="H31" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>112</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1615,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C32" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D32" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E32" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F32" t="n">
-        <v>7107.6107</v>
+        <v>63151.9738</v>
       </c>
       <c r="G32" t="n">
-        <v>116.6</v>
+        <v>228621.5431637137</v>
       </c>
       <c r="H32" t="n">
-        <v>115.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>112</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1656,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C33" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D33" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E33" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>31110.4</v>
       </c>
       <c r="G33" t="n">
-        <v>116.4</v>
+        <v>259731.9431637137</v>
       </c>
       <c r="H33" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>112</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1697,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C34" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D34" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E34" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F34" t="n">
-        <v>3508.5808</v>
+        <v>52285.3983</v>
       </c>
       <c r="G34" t="n">
-        <v>116.1333333333333</v>
+        <v>312017.3414637137</v>
       </c>
       <c r="H34" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>112</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1738,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C35" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D35" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E35" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F35" t="n">
-        <v>464.796</v>
+        <v>37482.9993</v>
       </c>
       <c r="G35" t="n">
-        <v>115.8</v>
+        <v>349500.3407637137</v>
       </c>
       <c r="H35" t="n">
-        <v>115.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>112</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1779,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C36" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D36" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E36" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F36" t="n">
-        <v>27827.0252</v>
+        <v>41428.7538</v>
       </c>
       <c r="G36" t="n">
-        <v>115.3333333333333</v>
+        <v>349500.3407637137</v>
       </c>
       <c r="H36" t="n">
-        <v>115.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>112</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1820,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C37" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E37" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F37" t="n">
-        <v>6763.6948</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>115</v>
+        <v>349502.3407637137</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>112</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1861,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C38" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D38" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E38" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>16209.364</v>
       </c>
       <c r="G38" t="n">
-        <v>114.8666666666667</v>
+        <v>349502.3407637137</v>
       </c>
       <c r="H38" t="n">
-        <v>115.5</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>112</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,37 +1902,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C39" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D39" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E39" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F39" t="n">
-        <v>7111.0565</v>
+        <v>12468.06179685039</v>
       </c>
       <c r="G39" t="n">
-        <v>114.6</v>
+        <v>349502.3407637137</v>
       </c>
       <c r="H39" t="n">
-        <v>115.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>112</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>1.111071428571429</v>
       </c>
     </row>
     <row r="40">
@@ -1882,36 +1943,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C40" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D40" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E40" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F40" t="n">
-        <v>2800</v>
+        <v>1785.2279</v>
       </c>
       <c r="G40" t="n">
-        <v>114.4</v>
+        <v>347717.1128637137</v>
       </c>
       <c r="H40" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1978,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C41" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D41" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E41" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>12547.24042580645</v>
       </c>
       <c r="G41" t="n">
-        <v>114.3333333333333</v>
+        <v>335169.8724379073</v>
       </c>
       <c r="H41" t="n">
-        <v>115.5</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2013,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C42" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D42" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E42" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F42" t="n">
-        <v>4754.8497</v>
+        <v>30440.4254</v>
       </c>
       <c r="G42" t="n">
-        <v>114.0666666666667</v>
+        <v>365610.2978379073</v>
       </c>
       <c r="H42" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2048,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C43" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D43" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E43" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>13001.31076229508</v>
       </c>
       <c r="G43" t="n">
-        <v>114</v>
+        <v>352608.9870756122</v>
       </c>
       <c r="H43" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2083,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C44" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D44" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E44" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F44" t="n">
-        <v>102654.6769</v>
+        <v>2393.2708</v>
       </c>
       <c r="G44" t="n">
-        <v>113.6666666666667</v>
+        <v>350215.7162756122</v>
       </c>
       <c r="H44" t="n">
-        <v>115.45</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2118,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C45" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D45" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E45" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F45" t="n">
-        <v>3659.5104</v>
+        <v>60439.3063</v>
       </c>
       <c r="G45" t="n">
-        <v>113.4</v>
+        <v>289776.4099756122</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2153,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C46" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D46" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E46" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F46" t="n">
-        <v>1413</v>
+        <v>7866.0765</v>
       </c>
       <c r="G46" t="n">
-        <v>113.2</v>
+        <v>281910.3334756122</v>
       </c>
       <c r="H46" t="n">
-        <v>115.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2188,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C47" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D47" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E47" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F47" t="n">
-        <v>2514</v>
+        <v>847.457627118644</v>
       </c>
       <c r="G47" t="n">
-        <v>113.0666666666667</v>
+        <v>282757.7911027308</v>
       </c>
       <c r="H47" t="n">
-        <v>115.55</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2223,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C48" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D48" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E48" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F48" t="n">
-        <v>263</v>
+        <v>20783.3782</v>
       </c>
       <c r="G48" t="n">
-        <v>112.8</v>
+        <v>303541.1693027308</v>
       </c>
       <c r="H48" t="n">
-        <v>115.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2258,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C49" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D49" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E49" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F49" t="n">
-        <v>12</v>
+        <v>19240.4997</v>
       </c>
       <c r="G49" t="n">
-        <v>112.5333333333333</v>
+        <v>322781.6690027307</v>
       </c>
       <c r="H49" t="n">
-        <v>115.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2293,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C50" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D50" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E50" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F50" t="n">
-        <v>5032.184</v>
+        <v>3679.0084</v>
       </c>
       <c r="G50" t="n">
-        <v>112.3333333333333</v>
+        <v>322781.6690027307</v>
       </c>
       <c r="H50" t="n">
-        <v>115.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2328,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C51" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D51" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E51" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F51" t="n">
-        <v>3014</v>
+        <v>11017.5844</v>
       </c>
       <c r="G51" t="n">
-        <v>112.2</v>
+        <v>311764.0846027308</v>
       </c>
       <c r="H51" t="n">
-        <v>115.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2363,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C52" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D52" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E52" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F52" t="n">
-        <v>13</v>
+        <v>62.6776</v>
       </c>
       <c r="G52" t="n">
-        <v>112.1333333333333</v>
+        <v>311764.0846027308</v>
       </c>
       <c r="H52" t="n">
-        <v>115.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2398,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C53" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D53" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E53" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>7800</v>
       </c>
       <c r="G53" t="n">
-        <v>111.8666666666667</v>
+        <v>311764.0846027308</v>
       </c>
       <c r="H53" t="n">
-        <v>115.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2433,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C54" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D54" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E54" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F54" t="n">
-        <v>1959</v>
+        <v>8043</v>
       </c>
       <c r="G54" t="n">
-        <v>111.8</v>
+        <v>303721.0846027308</v>
       </c>
       <c r="H54" t="n">
-        <v>115.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2468,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C55" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D55" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E55" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>3669.8109</v>
       </c>
       <c r="G55" t="n">
-        <v>111.6666666666667</v>
+        <v>303721.0846027308</v>
       </c>
       <c r="H55" t="n">
-        <v>115.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2503,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C56" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D56" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E56" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F56" t="n">
-        <v>990.25</v>
+        <v>1025.0621</v>
       </c>
       <c r="G56" t="n">
-        <v>111.4666666666667</v>
+        <v>303721.0846027308</v>
       </c>
       <c r="H56" t="n">
-        <v>115.85</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2538,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D57" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E57" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F57" t="n">
-        <v>210</v>
+        <v>743.2608</v>
       </c>
       <c r="G57" t="n">
-        <v>111.4</v>
+        <v>303721.0846027308</v>
       </c>
       <c r="H57" t="n">
-        <v>115.85</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2573,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C58" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D58" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E58" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>580.1292</v>
       </c>
       <c r="G58" t="n">
-        <v>111.1333333333333</v>
+        <v>303140.9554027307</v>
       </c>
       <c r="H58" t="n">
-        <v>115.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,7 +2608,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C59" t="n">
         <v>115</v>
@@ -2613,27 +2617,24 @@
         <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F59" t="n">
-        <v>7208.9866</v>
+        <v>5418.3347</v>
       </c>
       <c r="G59" t="n">
-        <v>111.4666666666667</v>
+        <v>303140.9554027307</v>
       </c>
       <c r="H59" t="n">
-        <v>115.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2643,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C60" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D60" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>16149.0438</v>
       </c>
       <c r="G60" t="n">
-        <v>111.4</v>
+        <v>286991.9116027307</v>
       </c>
       <c r="H60" t="n">
-        <v>115.75</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2678,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C61" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D61" t="n">
         <v>114</v>
       </c>
       <c r="E61" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F61" t="n">
-        <v>37336.1052</v>
+        <v>7107.6107</v>
       </c>
       <c r="G61" t="n">
-        <v>111.4666666666667</v>
+        <v>279884.3009027307</v>
       </c>
       <c r="H61" t="n">
-        <v>115.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2713,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C62" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D62" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E62" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F62" t="n">
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>111.5333333333333</v>
+        <v>279894.3009027307</v>
       </c>
       <c r="H62" t="n">
-        <v>115.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2748,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C63" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D63" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E63" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>3508.5808</v>
       </c>
       <c r="G63" t="n">
-        <v>111.6</v>
+        <v>279894.3009027307</v>
       </c>
       <c r="H63" t="n">
-        <v>115.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2783,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D64" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E64" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F64" t="n">
-        <v>3114.0973</v>
+        <v>464.796</v>
       </c>
       <c r="G64" t="n">
-        <v>111.6666666666667</v>
+        <v>279894.3009027307</v>
       </c>
       <c r="H64" t="n">
-        <v>115.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2818,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D65" t="n">
         <v>113</v>
       </c>
       <c r="E65" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F65" t="n">
-        <v>3050.8849</v>
+        <v>27827.0252</v>
       </c>
       <c r="G65" t="n">
-        <v>111.6666666666667</v>
+        <v>252067.2757027307</v>
       </c>
       <c r="H65" t="n">
-        <v>115.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,10 +2853,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C66" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" t="n">
         <v>113</v>
@@ -2882,24 +2865,21 @@
         <v>112</v>
       </c>
       <c r="F66" t="n">
-        <v>6633.316</v>
+        <v>6763.6948</v>
       </c>
       <c r="G66" t="n">
-        <v>111.8</v>
+        <v>245303.5809027307</v>
       </c>
       <c r="H66" t="n">
-        <v>115.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2888,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C67" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D67" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E67" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F67" t="n">
-        <v>27306.0113</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>111.8666666666667</v>
+        <v>245313.5809027307</v>
       </c>
       <c r="H67" t="n">
-        <v>114.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2923,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C68" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D68" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E68" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>7111.0565</v>
       </c>
       <c r="G68" t="n">
-        <v>111.9333333333333</v>
+        <v>238202.5244027307</v>
       </c>
       <c r="H68" t="n">
-        <v>114.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,40 +2958,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D69" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E69" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2800</v>
       </c>
       <c r="G69" t="n">
-        <v>111.9333333333333</v>
+        <v>238202.5244027307</v>
       </c>
       <c r="H69" t="n">
-        <v>114.45</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>112</v>
-      </c>
-      <c r="L69" t="n">
-        <v>112</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,44 +2993,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C70" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D70" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E70" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>112</v>
+        <v>238203.5244027307</v>
       </c>
       <c r="H70" t="n">
-        <v>114.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>112</v>
-      </c>
-      <c r="L70" t="n">
-        <v>112</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,44 +3028,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C71" t="n">
         <v>112</v>
       </c>
       <c r="D71" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E71" t="n">
         <v>112</v>
       </c>
       <c r="F71" t="n">
-        <v>9</v>
+        <v>4754.8497</v>
       </c>
       <c r="G71" t="n">
-        <v>112</v>
+        <v>233448.6747027307</v>
       </c>
       <c r="H71" t="n">
-        <v>114.05</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>112</v>
-      </c>
-      <c r="L71" t="n">
-        <v>112</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,40 +3063,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C72" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D72" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E72" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>112.0666666666667</v>
+        <v>233449.6747027307</v>
       </c>
       <c r="H72" t="n">
-        <v>113.9</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>112</v>
-      </c>
-      <c r="L72" t="n">
-        <v>112</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,44 +3098,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D73" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E73" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F73" t="n">
-        <v>20232.4347</v>
+        <v>102654.6769</v>
       </c>
       <c r="G73" t="n">
-        <v>112.2</v>
+        <v>130794.9978027307</v>
       </c>
       <c r="H73" t="n">
-        <v>113.75</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>112</v>
-      </c>
-      <c r="L73" t="n">
-        <v>112</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,44 +3133,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C74" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D74" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E74" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F74" t="n">
-        <v>8849.557500000001</v>
+        <v>3659.5104</v>
       </c>
       <c r="G74" t="n">
-        <v>112.0666666666667</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H74" t="n">
-        <v>113.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>113</v>
-      </c>
-      <c r="L74" t="n">
-        <v>112</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3252,36 +3168,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F75" t="n">
-        <v>10512.7805</v>
+        <v>1413</v>
       </c>
       <c r="G75" t="n">
-        <v>112.2666666666667</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H75" t="n">
-        <v>113.5</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,36 +3203,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C76" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D76" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E76" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>2514</v>
       </c>
       <c r="G76" t="n">
-        <v>112.3333333333333</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H76" t="n">
-        <v>113.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,40 +3238,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D77" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E77" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="G77" t="n">
-        <v>112.4</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H77" t="n">
-        <v>113.4</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>113</v>
-      </c>
-      <c r="L77" t="n">
-        <v>113</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,44 +3273,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C78" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D78" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E78" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F78" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>112.4666666666667</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H78" t="n">
-        <v>113.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>113</v>
-      </c>
-      <c r="L78" t="n">
-        <v>113</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,42 +3308,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D79" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E79" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F79" t="n">
-        <v>9</v>
+        <v>5032.184</v>
       </c>
       <c r="G79" t="n">
-        <v>112.5333333333333</v>
+        <v>139486.6922027307</v>
       </c>
       <c r="H79" t="n">
-        <v>113.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>113</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,40 +3343,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D80" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E80" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>3014</v>
       </c>
       <c r="G80" t="n">
-        <v>112.6</v>
+        <v>136472.6922027307</v>
       </c>
       <c r="H80" t="n">
-        <v>113.1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>113</v>
-      </c>
-      <c r="L80" t="n">
-        <v>113</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3502,44 +3378,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D81" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E81" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F81" t="n">
-        <v>3894.2068</v>
+        <v>13</v>
       </c>
       <c r="G81" t="n">
-        <v>112.6</v>
+        <v>136472.6922027307</v>
       </c>
       <c r="H81" t="n">
-        <v>112.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>113</v>
-      </c>
-      <c r="L81" t="n">
-        <v>113</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,44 +3413,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C82" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D82" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E82" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F82" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>112.7333333333333</v>
+        <v>136472.6922027307</v>
       </c>
       <c r="H82" t="n">
-        <v>112.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>113</v>
-      </c>
-      <c r="L82" t="n">
-        <v>113</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,36 +3448,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D83" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E83" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F83" t="n">
-        <v>10001</v>
+        <v>1959</v>
       </c>
       <c r="G83" t="n">
-        <v>113.0666666666667</v>
+        <v>138431.6922027307</v>
       </c>
       <c r="H83" t="n">
-        <v>112.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,36 +3483,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C84" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D84" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E84" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F84" t="n">
-        <v>1008</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>113.2666666666667</v>
+        <v>138428.6922027307</v>
       </c>
       <c r="H84" t="n">
-        <v>112.9</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,36 +3518,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C85" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D85" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E85" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F85" t="n">
-        <v>1.1</v>
+        <v>990.25</v>
       </c>
       <c r="G85" t="n">
-        <v>113.6</v>
+        <v>139418.9422027307</v>
       </c>
       <c r="H85" t="n">
-        <v>112.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,36 +3553,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C86" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D86" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E86" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F86" t="n">
-        <v>713.9246000000001</v>
+        <v>210</v>
       </c>
       <c r="G86" t="n">
-        <v>113.6666666666667</v>
+        <v>139208.9422027307</v>
       </c>
       <c r="H86" t="n">
-        <v>112.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,36 +3588,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C87" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D87" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E87" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>113.8</v>
+        <v>139208.9422027307</v>
       </c>
       <c r="H87" t="n">
-        <v>112.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3784,36 +3623,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C88" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D88" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>7208.9866</v>
       </c>
       <c r="G88" t="n">
-        <v>113.8</v>
+        <v>146417.9288027307</v>
       </c>
       <c r="H88" t="n">
-        <v>112.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,36 +3658,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C89" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D89" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E89" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F89" t="n">
-        <v>16785.1027</v>
+        <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>113.8</v>
+        <v>146411.9288027307</v>
       </c>
       <c r="H89" t="n">
-        <v>112.75</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,36 +3693,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C90" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D90" t="n">
         <v>114</v>
       </c>
       <c r="E90" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F90" t="n">
-        <v>4425.7787</v>
+        <v>37336.1052</v>
       </c>
       <c r="G90" t="n">
-        <v>113.8</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H90" t="n">
-        <v>112.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,36 +3728,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C91" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D91" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E91" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>113.6666666666667</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H91" t="n">
-        <v>112.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3936,40 +3763,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D92" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E92" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>113.6666666666667</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H92" t="n">
-        <v>112.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>111</v>
-      </c>
-      <c r="L92" t="n">
-        <v>111</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,44 +3798,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C93" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D93" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E93" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F93" t="n">
-        <v>559</v>
+        <v>3114.0973</v>
       </c>
       <c r="G93" t="n">
-        <v>113.8</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H93" t="n">
-        <v>112.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>113</v>
-      </c>
-      <c r="L93" t="n">
-        <v>111</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,36 +3839,27 @@
         <v>112</v>
       </c>
       <c r="D94" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E94" t="n">
         <v>112</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>3050.8849</v>
       </c>
       <c r="G94" t="n">
-        <v>113.7333333333333</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H94" t="n">
-        <v>112.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>111</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,36 +3868,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C95" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D95" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E95" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>6633.316</v>
       </c>
       <c r="G95" t="n">
-        <v>113.8666666666667</v>
+        <v>190381.3500027307</v>
       </c>
       <c r="H95" t="n">
-        <v>112.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,36 +3903,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C96" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D96" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E96" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F96" t="n">
-        <v>1.45</v>
+        <v>27306.0113</v>
       </c>
       <c r="G96" t="n">
-        <v>114</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H96" t="n">
-        <v>112.65</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,36 +3938,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C97" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D97" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E97" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F97" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>114.0666666666667</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H97" t="n">
-        <v>112.7</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,24 +3985,21 @@
         <v>112</v>
       </c>
       <c r="F98" t="n">
-        <v>3115.7781</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>113.7333333333333</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H98" t="n">
-        <v>112.65</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,36 +4008,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C99" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D99" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F99" t="n">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G99" t="n">
-        <v>113.6666666666667</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H99" t="n">
-        <v>112.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4258,36 +4043,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C100" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D100" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E100" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F100" t="n">
-        <v>1784.6747</v>
+        <v>9</v>
       </c>
       <c r="G100" t="n">
-        <v>113.2666666666667</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H100" t="n">
-        <v>112.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4296,42 +4078,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C101" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D101" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E101" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F101" t="n">
-        <v>295.9294</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>113.2666666666667</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H101" t="n">
-        <v>112.6</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,42 +4113,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C102" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D102" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E102" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F102" t="n">
-        <v>55.5</v>
+        <v>20232.4347</v>
       </c>
       <c r="G102" t="n">
-        <v>113.0666666666667</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H102" t="n">
-        <v>112.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4396,30 +4160,21 @@
         <v>113</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>8849.557500000001</v>
       </c>
       <c r="G103" t="n">
-        <v>113.0666666666667</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H103" t="n">
-        <v>112.55</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,39 +4186,30 @@
         <v>113</v>
       </c>
       <c r="C104" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E104" t="n">
         <v>113</v>
       </c>
       <c r="F104" t="n">
-        <v>87</v>
+        <v>10512.7805</v>
       </c>
       <c r="G104" t="n">
-        <v>113.1333333333333</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H104" t="n">
-        <v>112.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,42 +4218,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E105" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>113.2</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H105" t="n">
-        <v>112.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4516,42 +4253,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E106" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F106" t="n">
-        <v>20766</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>113.4</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H106" t="n">
-        <v>112.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,40 +4288,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D107" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E107" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G107" t="n">
-        <v>113.5333333333333</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H107" t="n">
-        <v>112.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,30 +4335,21 @@
         <v>113</v>
       </c>
       <c r="F108" t="n">
-        <v>7273.6017</v>
+        <v>9</v>
       </c>
       <c r="G108" t="n">
-        <v>113.4</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H108" t="n">
-        <v>112.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4646,42 +4358,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D109" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E109" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>113.6</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H109" t="n">
-        <v>112.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,42 +4393,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E110" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F110" t="n">
-        <v>2056.0137</v>
+        <v>3894.2068</v>
       </c>
       <c r="G110" t="n">
-        <v>113.5333333333333</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H110" t="n">
-        <v>112.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,37 +4431,1045 @@
         <v>114</v>
       </c>
       <c r="C111" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D111" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E111" t="n">
         <v>114</v>
       </c>
       <c r="F111" t="n">
-        <v>2364</v>
+        <v>1.1</v>
       </c>
       <c r="G111" t="n">
-        <v>113.5333333333333</v>
+        <v>183308.8734027307</v>
       </c>
       <c r="H111" t="n">
-        <v>112.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>113</v>
+      </c>
+      <c r="C112" t="n">
+        <v>117</v>
+      </c>
+      <c r="D112" t="n">
+        <v>117</v>
+      </c>
+      <c r="E112" t="n">
+        <v>113</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G112" t="n">
+        <v>193309.8734027307</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>117</v>
+      </c>
+      <c r="C113" t="n">
+        <v>115</v>
+      </c>
+      <c r="D113" t="n">
+        <v>117</v>
+      </c>
+      <c r="E113" t="n">
+        <v>115</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1008</v>
+      </c>
+      <c r="G113" t="n">
+        <v>192301.8734027307</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>117</v>
+      </c>
+      <c r="C114" t="n">
+        <v>117</v>
+      </c>
+      <c r="D114" t="n">
+        <v>117</v>
+      </c>
+      <c r="E114" t="n">
+        <v>117</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>192302.9734027307</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>115</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="n">
+        <v>115</v>
+      </c>
+      <c r="E115" t="n">
+        <v>113</v>
+      </c>
+      <c r="F115" t="n">
+        <v>713.9246000000001</v>
+      </c>
+      <c r="G115" t="n">
+        <v>191589.0488027307</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>114</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>191594.0488027307</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>113</v>
+      </c>
+      <c r="C117" t="n">
+        <v>113</v>
+      </c>
+      <c r="D117" t="n">
+        <v>113</v>
+      </c>
+      <c r="E117" t="n">
+        <v>113</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4</v>
+      </c>
+      <c r="G117" t="n">
+        <v>191590.0488027307</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>113</v>
+      </c>
+      <c r="C118" t="n">
+        <v>113</v>
+      </c>
+      <c r="D118" t="n">
+        <v>113</v>
+      </c>
+      <c r="E118" t="n">
+        <v>113</v>
+      </c>
+      <c r="F118" t="n">
+        <v>16785.1027</v>
+      </c>
+      <c r="G118" t="n">
+        <v>191590.0488027307</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>114</v>
+      </c>
+      <c r="C119" t="n">
+        <v>113</v>
+      </c>
+      <c r="D119" t="n">
+        <v>114</v>
+      </c>
+      <c r="E119" t="n">
+        <v>113</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4425.7787</v>
+      </c>
+      <c r="G119" t="n">
+        <v>191590.0488027307</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>111</v>
+      </c>
+      <c r="C120" t="n">
+        <v>111</v>
+      </c>
+      <c r="D120" t="n">
+        <v>111</v>
+      </c>
+      <c r="E120" t="n">
+        <v>111</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3</v>
+      </c>
+      <c r="G120" t="n">
+        <v>191587.0488027307</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>113</v>
+      </c>
+      <c r="C121" t="n">
+        <v>113</v>
+      </c>
+      <c r="D121" t="n">
+        <v>113</v>
+      </c>
+      <c r="E121" t="n">
+        <v>113</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>191588.0488027307</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>114</v>
+      </c>
+      <c r="C122" t="n">
+        <v>115</v>
+      </c>
+      <c r="D122" t="n">
+        <v>115</v>
+      </c>
+      <c r="E122" t="n">
+        <v>114</v>
+      </c>
+      <c r="F122" t="n">
+        <v>559</v>
+      </c>
+      <c r="G122" t="n">
+        <v>192147.0488027307</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>112</v>
+      </c>
+      <c r="C123" t="n">
+        <v>112</v>
+      </c>
+      <c r="D123" t="n">
+        <v>112</v>
+      </c>
+      <c r="E123" t="n">
+        <v>112</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>192146.0488027307</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>115</v>
+      </c>
+      <c r="C124" t="n">
+        <v>115</v>
+      </c>
+      <c r="D124" t="n">
+        <v>115</v>
+      </c>
+      <c r="E124" t="n">
+        <v>115</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>192147.0488027307</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>115</v>
+      </c>
+      <c r="C125" t="n">
+        <v>115</v>
+      </c>
+      <c r="D125" t="n">
+        <v>115</v>
+      </c>
+      <c r="E125" t="n">
+        <v>115</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G125" t="n">
+        <v>192147.0488027307</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>115</v>
+      </c>
+      <c r="C126" t="n">
+        <v>115</v>
+      </c>
+      <c r="D126" t="n">
+        <v>115</v>
+      </c>
+      <c r="E126" t="n">
+        <v>115</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>192147.0488027307</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>112</v>
+      </c>
+      <c r="C127" t="n">
+        <v>112</v>
+      </c>
+      <c r="D127" t="n">
+        <v>112</v>
+      </c>
+      <c r="E127" t="n">
+        <v>112</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3115.7781</v>
+      </c>
+      <c r="G127" t="n">
+        <v>189031.2707027307</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>113</v>
+      </c>
+      <c r="C128" t="n">
+        <v>114</v>
+      </c>
+      <c r="D128" t="n">
+        <v>114</v>
+      </c>
+      <c r="E128" t="n">
+        <v>113</v>
+      </c>
+      <c r="F128" t="n">
+        <v>117</v>
+      </c>
+      <c r="G128" t="n">
+        <v>189148.2707027307</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>111</v>
+      </c>
+      <c r="C129" t="n">
+        <v>111</v>
+      </c>
+      <c r="D129" t="n">
+        <v>111</v>
+      </c>
+      <c r="E129" t="n">
+        <v>111</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1784.6747</v>
+      </c>
+      <c r="G129" t="n">
+        <v>187363.5960027307</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>111</v>
+      </c>
+      <c r="C130" t="n">
+        <v>113</v>
+      </c>
+      <c r="D130" t="n">
+        <v>113</v>
+      </c>
+      <c r="E130" t="n">
+        <v>111</v>
+      </c>
+      <c r="F130" t="n">
+        <v>295.9294</v>
+      </c>
+      <c r="G130" t="n">
+        <v>187659.5254027307</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>111</v>
+      </c>
+      <c r="C131" t="n">
+        <v>111</v>
+      </c>
+      <c r="D131" t="n">
+        <v>111</v>
+      </c>
+      <c r="E131" t="n">
+        <v>111</v>
+      </c>
+      <c r="F131" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>187604.0254027307</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>113</v>
+      </c>
+      <c r="C132" t="n">
+        <v>113</v>
+      </c>
+      <c r="D132" t="n">
+        <v>113</v>
+      </c>
+      <c r="E132" t="n">
+        <v>113</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>187605.0254027307</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>113</v>
+      </c>
+      <c r="C133" t="n">
+        <v>114</v>
+      </c>
+      <c r="D133" t="n">
+        <v>114</v>
+      </c>
+      <c r="E133" t="n">
+        <v>113</v>
+      </c>
+      <c r="F133" t="n">
+        <v>87</v>
+      </c>
+      <c r="G133" t="n">
+        <v>187692.0254027307</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>114</v>
+      </c>
+      <c r="C134" t="n">
+        <v>114</v>
+      </c>
+      <c r="D134" t="n">
+        <v>114</v>
+      </c>
+      <c r="E134" t="n">
+        <v>114</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2</v>
+      </c>
+      <c r="G134" t="n">
+        <v>187692.0254027307</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>114</v>
+      </c>
+      <c r="C135" t="n">
+        <v>114</v>
+      </c>
+      <c r="D135" t="n">
+        <v>114</v>
+      </c>
+      <c r="E135" t="n">
+        <v>114</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20766</v>
+      </c>
+      <c r="G135" t="n">
+        <v>187692.0254027307</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>114</v>
+      </c>
+      <c r="C136" t="n">
+        <v>115</v>
+      </c>
+      <c r="D136" t="n">
+        <v>115</v>
+      </c>
+      <c r="E136" t="n">
+        <v>114</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" t="n">
+        <v>187697.0254027307</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>113</v>
+      </c>
+      <c r="C137" t="n">
+        <v>113</v>
+      </c>
+      <c r="D137" t="n">
+        <v>113</v>
+      </c>
+      <c r="E137" t="n">
+        <v>113</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7273.6017</v>
+      </c>
+      <c r="G137" t="n">
+        <v>180423.4237027307</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>115</v>
+      </c>
+      <c r="C138" t="n">
+        <v>115</v>
+      </c>
+      <c r="D138" t="n">
+        <v>115</v>
+      </c>
+      <c r="E138" t="n">
+        <v>115</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>180424.4237027307</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>114</v>
+      </c>
+      <c r="C139" t="n">
+        <v>114</v>
+      </c>
+      <c r="D139" t="n">
+        <v>114</v>
+      </c>
+      <c r="E139" t="n">
+        <v>114</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2056.0137</v>
+      </c>
+      <c r="G139" t="n">
+        <v>178368.4100027307</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>114</v>
+      </c>
+      <c r="C140" t="n">
+        <v>115</v>
+      </c>
+      <c r="D140" t="n">
+        <v>115</v>
+      </c>
+      <c r="E140" t="n">
+        <v>114</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2364</v>
+      </c>
+      <c r="G140" t="n">
+        <v>180732.4100027307</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,6 +795,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -824,6 +839,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -865,6 +881,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,6 +923,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -947,6 +965,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,6 +1007,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1029,6 +1049,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,6 +1091,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1111,6 +1133,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,6 +1175,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1195,6 +1219,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1238,6 +1263,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1281,6 +1307,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1322,6 +1349,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1363,6 +1391,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,6 +1433,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1445,6 +1475,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1486,6 +1517,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1527,6 +1559,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1568,6 +1601,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1609,6 +1643,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1650,6 +1685,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1691,6 +1727,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1732,6 +1769,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1773,6 +1811,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1814,6 +1853,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1841,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
@@ -1849,11 +1889,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>1.111071428571429</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.026785714285714</v>
       </c>
     </row>
     <row r="38">
@@ -1882,20 +1925,15 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>112</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1926,17 +1964,12 @@
         <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>112</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>1.111071428571429</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1972,6 +2005,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2007,6 +2041,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2042,6 +2077,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2077,6 +2113,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2104,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2112,6 +2149,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2147,6 +2185,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2182,6 +2221,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2217,6 +2257,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,6 +2293,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2279,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2287,6 +2329,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2314,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2322,6 +2365,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2357,6 +2401,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2392,6 +2437,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2419,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2427,6 +2473,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2462,6 +2509,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2497,6 +2545,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2532,6 +2581,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2567,6 +2617,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2602,6 +2653,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2637,6 +2689,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2672,6 +2725,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2707,6 +2761,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2742,6 +2797,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2777,6 +2833,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2812,6 +2869,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2847,6 +2905,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2882,6 +2941,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2917,6 +2977,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2952,6 +3013,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2987,6 +3049,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3022,6 +3085,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3057,6 +3121,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3092,6 +3157,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3127,6 +3193,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3162,6 +3229,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3197,6 +3265,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3232,6 +3301,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3267,6 +3337,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3302,6 +3373,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3337,6 +3409,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3372,6 +3445,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3407,6 +3481,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3442,6 +3517,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3477,6 +3553,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3512,6 +3589,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3547,6 +3625,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3582,6 +3661,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3617,6 +3697,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3652,6 +3733,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3687,6 +3769,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3722,6 +3805,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3757,6 +3841,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3792,6 +3877,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3827,6 +3913,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3862,6 +3949,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3897,6 +3985,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3932,6 +4021,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3967,6 +4057,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4002,6 +4093,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4037,6 +4129,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4072,6 +4165,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4107,6 +4201,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4142,6 +4237,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4177,6 +4273,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4212,6 +4309,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4247,6 +4345,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4282,6 +4381,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4317,6 +4417,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4352,6 +4453,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4387,6 +4489,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4422,6 +4525,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4457,6 +4561,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4492,6 +4597,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4527,6 +4633,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4562,6 +4669,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4597,6 +4705,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4632,6 +4741,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4667,6 +4777,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4702,6 +4813,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4737,6 +4849,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4772,6 +4885,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4807,6 +4921,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4842,6 +4957,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4877,6 +4993,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4912,6 +5029,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4947,6 +5065,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4982,6 +5101,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5017,6 +5137,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5052,6 +5173,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5087,6 +5209,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5122,6 +5245,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5157,6 +5281,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5192,6 +5317,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5227,6 +5353,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5262,6 +5389,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5297,6 +5425,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5332,6 +5461,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5367,6 +5497,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5402,6 +5533,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5437,6 +5569,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5472,6 +5605,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>1805.6409</v>
+        <v>2138.656540740741</v>
       </c>
       <c r="G2" t="n">
-        <v>171275.8097637137</v>
+        <v>24920.79752297297</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>313.7178</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>171589.5275637137</v>
+        <v>24921.79752297297</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>108</v>
+      </c>
+      <c r="K3" t="n">
+        <v>108</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C4" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
-        <v>18616.1483</v>
+        <v>861.3434592592592</v>
       </c>
       <c r="G4" t="n">
-        <v>152973.3792637137</v>
+        <v>24060.45406371371</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>110</v>
+      </c>
+      <c r="K4" t="n">
+        <v>108</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C5" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D5" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E5" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F5" t="n">
-        <v>5548.5924</v>
+        <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>152973.3792637137</v>
+        <v>23760.45406371371</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>108</v>
+      </c>
+      <c r="K5" t="n">
+        <v>108</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C6" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F6" t="n">
-        <v>337</v>
+        <v>523.2221</v>
       </c>
       <c r="G6" t="n">
-        <v>152973.3792637137</v>
+        <v>23237.23196371371</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>107</v>
+      </c>
+      <c r="K6" t="n">
+        <v>107</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4972</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>152973.3792637137</v>
+        <v>23238.23196371371</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>106</v>
+      </c>
+      <c r="K7" t="n">
+        <v>107</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +686,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E8" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>322.1783</v>
       </c>
       <c r="G8" t="n">
-        <v>152974.3792637137</v>
+        <v>23560.41026371371</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>109</v>
+      </c>
+      <c r="K8" t="n">
+        <v>107</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,31 +730,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E9" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F9" t="n">
-        <v>950.376</v>
+        <v>0.8217</v>
       </c>
       <c r="G9" t="n">
-        <v>153924.7552637137</v>
+        <v>23559.58856371371</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>110</v>
+      </c>
+      <c r="K9" t="n">
+        <v>110</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,32 +770,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C10" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>104871.616</v>
       </c>
       <c r="G10" t="n">
-        <v>153922.7552637137</v>
+        <v>128431.2045637137</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>109</v>
+      </c>
+      <c r="K10" t="n">
+        <v>110</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,36 +814,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1341.5872</v>
       </c>
       <c r="G11" t="n">
-        <v>153923.7552637137</v>
+        <v>127089.6173637137</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>112</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>112</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -802,38 +856,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E12" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>44425.3864</v>
       </c>
       <c r="G12" t="n">
-        <v>153923.7552637137</v>
+        <v>171515.0037637137</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>115</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -846,22 +898,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C13" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D13" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F13" t="n">
-        <v>24667.9579</v>
+        <v>6209.237</v>
       </c>
       <c r="G13" t="n">
-        <v>129255.7973637137</v>
+        <v>171515.0037637137</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -871,11 +923,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -888,22 +940,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C14" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D14" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E14" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F14" t="n">
-        <v>1803.8753</v>
+        <v>21890.293</v>
       </c>
       <c r="G14" t="n">
-        <v>127451.9220637137</v>
+        <v>193405.2967637137</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -913,7 +965,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -930,22 +982,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C15" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E15" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F15" t="n">
-        <v>333.3454</v>
+        <v>24012.3974</v>
       </c>
       <c r="G15" t="n">
-        <v>127451.9220637137</v>
+        <v>193405.2967637137</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -955,7 +1007,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -972,22 +1024,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C16" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D16" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F16" t="n">
-        <v>18698.7775</v>
+        <v>36273.4445</v>
       </c>
       <c r="G16" t="n">
-        <v>127451.9220637137</v>
+        <v>229678.7412637137</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -997,7 +1049,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1014,22 +1066,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C17" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D17" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E17" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F17" t="n">
-        <v>21.5596</v>
+        <v>36255.9008</v>
       </c>
       <c r="G17" t="n">
-        <v>127451.9220637137</v>
+        <v>193422.8404637137</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1039,7 +1091,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1056,22 +1108,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C18" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D18" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E18" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F18" t="n">
-        <v>117.0671</v>
+        <v>10519.9703</v>
       </c>
       <c r="G18" t="n">
-        <v>127451.9220637137</v>
+        <v>203942.8107637137</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1081,7 +1133,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1098,22 +1150,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C19" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D19" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E19" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F19" t="n">
-        <v>151.4592</v>
+        <v>1723.2904</v>
       </c>
       <c r="G19" t="n">
-        <v>127451.9220637137</v>
+        <v>202219.5203637137</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1123,7 +1175,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1140,22 +1192,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C20" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D20" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E20" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>1524.2222</v>
       </c>
       <c r="G20" t="n">
-        <v>127452.9220637137</v>
+        <v>202219.5203637137</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1165,7 +1217,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1182,34 +1234,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C21" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D21" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E21" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F21" t="n">
-        <v>1111.3066</v>
+        <v>4857.282</v>
       </c>
       <c r="G21" t="n">
-        <v>126341.6154637137</v>
+        <v>197362.2383637137</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>110</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1226,34 +1276,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C22" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D22" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E22" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F22" t="n">
-        <v>2.1958</v>
+        <v>8878.9198</v>
       </c>
       <c r="G22" t="n">
-        <v>126339.4196637137</v>
+        <v>197362.2383637137</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>109</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1270,34 +1318,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C23" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D23" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E23" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F23" t="n">
-        <v>4652.5001</v>
+        <v>567.0829</v>
       </c>
       <c r="G23" t="n">
-        <v>126339.4196637137</v>
+        <v>197362.2383637137</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>108</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1314,22 +1360,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D24" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E24" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2900</v>
       </c>
       <c r="G24" t="n">
-        <v>126340.4196637137</v>
+        <v>197362.2383637137</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1339,7 +1385,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1356,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C25" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D25" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E25" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F25" t="n">
-        <v>91.7431</v>
+        <v>22.4581</v>
       </c>
       <c r="G25" t="n">
-        <v>126248.6765637137</v>
+        <v>197362.2383637137</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1381,7 +1427,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1398,22 +1444,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C26" t="n">
         <v>111</v>
       </c>
       <c r="D26" t="n">
+        <v>112</v>
+      </c>
+      <c r="E26" t="n">
         <v>111</v>
       </c>
-      <c r="E26" t="n">
-        <v>110</v>
-      </c>
       <c r="F26" t="n">
-        <v>5535.5769</v>
+        <v>17692.7057</v>
       </c>
       <c r="G26" t="n">
-        <v>131784.2534637137</v>
+        <v>179669.5326637137</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1423,7 +1469,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1443,19 +1489,19 @@
         <v>111</v>
       </c>
       <c r="C27" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D27" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E27" t="n">
         <v>111</v>
       </c>
       <c r="F27" t="n">
-        <v>44816.4391</v>
+        <v>11997.9383</v>
       </c>
       <c r="G27" t="n">
-        <v>176600.6925637137</v>
+        <v>179669.5326637137</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1465,7 +1511,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1482,22 +1528,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" t="n">
         <v>113</v>
       </c>
       <c r="D28" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" t="n">
         <v>113</v>
       </c>
       <c r="F28" t="n">
-        <v>16806.9764</v>
+        <v>5.354</v>
       </c>
       <c r="G28" t="n">
-        <v>159793.7161637137</v>
+        <v>179674.8866637137</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1507,7 +1553,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1524,22 +1570,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" t="n">
-        <v>2217.0476</v>
+        <v>8508.0769</v>
       </c>
       <c r="G29" t="n">
-        <v>162010.7637637137</v>
+        <v>171166.8097637137</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1549,7 +1595,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1566,22 +1612,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" t="n">
         <v>114</v>
       </c>
       <c r="D30" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" t="n">
-        <v>1692.8228</v>
+        <v>109</v>
       </c>
       <c r="G30" t="n">
-        <v>162010.7637637137</v>
+        <v>171275.8097637137</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1591,7 +1637,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1608,22 +1654,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F31" t="n">
-        <v>3458.8056</v>
+        <v>1805.6409</v>
       </c>
       <c r="G31" t="n">
-        <v>165469.5693637137</v>
+        <v>171275.8097637137</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1633,7 +1679,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1650,22 +1696,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D32" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E32" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F32" t="n">
-        <v>63151.9738</v>
+        <v>313.7178</v>
       </c>
       <c r="G32" t="n">
-        <v>228621.5431637137</v>
+        <v>171589.5275637137</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1675,7 +1721,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1692,22 +1738,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C33" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D33" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E33" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F33" t="n">
-        <v>31110.4</v>
+        <v>18616.1483</v>
       </c>
       <c r="G33" t="n">
-        <v>259731.9431637137</v>
+        <v>152973.3792637137</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1717,7 +1763,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1734,22 +1780,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C34" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D34" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E34" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F34" t="n">
-        <v>52285.3983</v>
+        <v>5548.5924</v>
       </c>
       <c r="G34" t="n">
-        <v>312017.3414637137</v>
+        <v>152973.3792637137</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1759,7 +1805,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1776,22 +1822,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C35" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D35" t="n">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E35" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F35" t="n">
-        <v>37482.9993</v>
+        <v>337</v>
       </c>
       <c r="G35" t="n">
-        <v>349500.3407637137</v>
+        <v>152973.3792637137</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1801,7 +1847,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1818,22 +1864,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C36" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D36" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E36" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F36" t="n">
-        <v>41428.7538</v>
+        <v>0.4972</v>
       </c>
       <c r="G36" t="n">
-        <v>349500.3407637137</v>
+        <v>152973.3792637137</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1843,7 +1889,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1860,76 +1906,80 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C37" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D37" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E37" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>349502.3407637137</v>
+        <v>152974.3792637137</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1.111071428571429</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.026785714285714</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C38" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D38" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E38" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F38" t="n">
-        <v>16209.364</v>
+        <v>950.376</v>
       </c>
       <c r="G38" t="n">
-        <v>349502.3407637137</v>
+        <v>153924.7552637137</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>110</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1940,32 +1990,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C39" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D39" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E39" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F39" t="n">
-        <v>12468.06179685039</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>349502.3407637137</v>
+        <v>153922.7552637137</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>110</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1976,32 +2032,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C40" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D40" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E40" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F40" t="n">
-        <v>1785.2279</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>347717.1128637137</v>
+        <v>153923.7552637137</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>110</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2012,32 +2074,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C41" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D41" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F41" t="n">
-        <v>12547.24042580645</v>
+        <v>24</v>
       </c>
       <c r="G41" t="n">
-        <v>335169.8724379073</v>
+        <v>153923.7552637137</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>110</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2048,32 +2116,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C42" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D42" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E42" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F42" t="n">
-        <v>30440.4254</v>
+        <v>24667.9579</v>
       </c>
       <c r="G42" t="n">
-        <v>365610.2978379073</v>
+        <v>129255.7973637137</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>110</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2084,32 +2158,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C43" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D43" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E43" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F43" t="n">
-        <v>13001.31076229508</v>
+        <v>1803.8753</v>
       </c>
       <c r="G43" t="n">
-        <v>352608.9870756122</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>110</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2120,32 +2200,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C44" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D44" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E44" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F44" t="n">
-        <v>2393.2708</v>
+        <v>333.3454</v>
       </c>
       <c r="G44" t="n">
-        <v>350215.7162756122</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>110</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2156,32 +2242,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C45" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D45" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E45" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F45" t="n">
-        <v>60439.3063</v>
+        <v>18698.7775</v>
       </c>
       <c r="G45" t="n">
-        <v>289776.4099756122</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>110</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2192,32 +2284,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C46" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D46" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E46" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F46" t="n">
-        <v>7866.0765</v>
+        <v>21.5596</v>
       </c>
       <c r="G46" t="n">
-        <v>281910.3334756122</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>110</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2228,32 +2326,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C47" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D47" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E47" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F47" t="n">
-        <v>847.457627118644</v>
+        <v>117.0671</v>
       </c>
       <c r="G47" t="n">
-        <v>282757.7911027308</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>109</v>
+      </c>
+      <c r="K47" t="n">
+        <v>110</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2264,32 +2370,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C48" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D48" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E48" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F48" t="n">
-        <v>20783.3782</v>
+        <v>151.4592</v>
       </c>
       <c r="G48" t="n">
-        <v>303541.1693027308</v>
+        <v>127451.9220637137</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>109</v>
+      </c>
+      <c r="K48" t="n">
+        <v>110</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2300,32 +2414,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C49" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D49" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E49" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F49" t="n">
-        <v>19240.4997</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>322781.6690027307</v>
+        <v>127452.9220637137</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>110</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2336,32 +2456,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C50" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D50" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E50" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F50" t="n">
-        <v>3679.0084</v>
+        <v>1111.3066</v>
       </c>
       <c r="G50" t="n">
-        <v>322781.6690027307</v>
+        <v>126341.6154637137</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>110</v>
+      </c>
+      <c r="K50" t="n">
+        <v>110</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2372,32 +2500,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C51" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D51" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E51" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F51" t="n">
-        <v>11017.5844</v>
+        <v>2.1958</v>
       </c>
       <c r="G51" t="n">
-        <v>311764.0846027308</v>
+        <v>126339.4196637137</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>109</v>
+      </c>
+      <c r="K51" t="n">
+        <v>110</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2408,32 +2544,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C52" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D52" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E52" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F52" t="n">
-        <v>62.6776</v>
+        <v>4652.5001</v>
       </c>
       <c r="G52" t="n">
-        <v>311764.0846027308</v>
+        <v>126339.4196637137</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>108</v>
+      </c>
+      <c r="K52" t="n">
+        <v>110</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2444,32 +2588,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C53" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D53" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E53" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F53" t="n">
-        <v>7800</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>311764.0846027308</v>
+        <v>126340.4196637137</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>108</v>
+      </c>
+      <c r="K53" t="n">
+        <v>110</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2480,32 +2632,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C54" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D54" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E54" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F54" t="n">
-        <v>8043</v>
+        <v>91.7431</v>
       </c>
       <c r="G54" t="n">
-        <v>303721.0846027308</v>
+        <v>126248.6765637137</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>112</v>
+      </c>
+      <c r="K54" t="n">
+        <v>110</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2516,32 +2676,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D55" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E55" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F55" t="n">
-        <v>3669.8109</v>
+        <v>5535.5769</v>
       </c>
       <c r="G55" t="n">
-        <v>303721.0846027308</v>
+        <v>131784.2534637137</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>110</v>
+      </c>
+      <c r="K55" t="n">
+        <v>110</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2552,32 +2720,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C56" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E56" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F56" t="n">
-        <v>1025.0621</v>
+        <v>44816.4391</v>
       </c>
       <c r="G56" t="n">
-        <v>303721.0846027308</v>
+        <v>176600.6925637137</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>111</v>
+      </c>
+      <c r="K56" t="n">
+        <v>110</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2764,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D57" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E57" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F57" t="n">
-        <v>743.2608</v>
+        <v>16806.9764</v>
       </c>
       <c r="G57" t="n">
-        <v>303721.0846027308</v>
+        <v>159793.7161637137</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2612,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>110</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2624,22 +2806,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E58" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" t="n">
-        <v>580.1292</v>
+        <v>2217.0476</v>
       </c>
       <c r="G58" t="n">
-        <v>303140.9554027307</v>
+        <v>162010.7637637137</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2648,8 +2830,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>110</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2663,19 +2851,19 @@
         <v>115</v>
       </c>
       <c r="C59" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" t="n">
         <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F59" t="n">
-        <v>5418.3347</v>
+        <v>1692.8228</v>
       </c>
       <c r="G59" t="n">
-        <v>303140.9554027307</v>
+        <v>162010.7637637137</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2684,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>110</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2696,22 +2890,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F60" t="n">
-        <v>16149.0438</v>
+        <v>3458.8056</v>
       </c>
       <c r="G60" t="n">
-        <v>286991.9116027307</v>
+        <v>165469.5693637137</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2720,8 +2914,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>110</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2732,22 +2932,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D61" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E61" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F61" t="n">
-        <v>7107.6107</v>
+        <v>63151.9738</v>
       </c>
       <c r="G61" t="n">
-        <v>279884.3009027307</v>
+        <v>228621.5431637137</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2756,8 +2956,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>110</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2768,22 +2974,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C62" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D62" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E62" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>31110.4</v>
       </c>
       <c r="G62" t="n">
-        <v>279894.3009027307</v>
+        <v>259731.9431637137</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2792,8 +2998,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>110</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2804,22 +3016,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C63" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D63" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E63" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F63" t="n">
-        <v>3508.5808</v>
+        <v>52285.3983</v>
       </c>
       <c r="G63" t="n">
-        <v>279894.3009027307</v>
+        <v>312017.3414637137</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2828,8 +3040,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>110</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2840,22 +3058,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C64" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D64" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E64" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F64" t="n">
-        <v>464.796</v>
+        <v>37482.9993</v>
       </c>
       <c r="G64" t="n">
-        <v>279894.3009027307</v>
+        <v>349500.3407637137</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2864,8 +3082,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>110</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2876,22 +3100,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C65" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D65" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E65" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F65" t="n">
-        <v>27827.0252</v>
+        <v>41428.7538</v>
       </c>
       <c r="G65" t="n">
-        <v>252067.2757027307</v>
+        <v>349500.3407637137</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2900,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>110</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2912,22 +3142,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C66" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D66" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E66" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F66" t="n">
-        <v>6763.6948</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>245303.5809027307</v>
+        <v>349502.3407637137</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2936,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>110</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2948,22 +3184,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C67" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D67" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E67" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>16209.364</v>
       </c>
       <c r="G67" t="n">
-        <v>245313.5809027307</v>
+        <v>349502.3407637137</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2972,8 +3208,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>110</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2984,64 +3226,72 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C68" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D68" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E68" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F68" t="n">
-        <v>7111.0565</v>
+        <v>12468.06179685039</v>
       </c>
       <c r="G68" t="n">
-        <v>238202.5244027307</v>
+        <v>349502.3407637137</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>110</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>1.131363636363637</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.037735849056604</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C69" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D69" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E69" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F69" t="n">
-        <v>2800</v>
+        <v>1785.2279</v>
       </c>
       <c r="G69" t="n">
-        <v>238202.5244027307</v>
+        <v>347717.1128637137</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3056,28 +3306,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C70" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D70" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E70" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>12547.24042580645</v>
       </c>
       <c r="G70" t="n">
-        <v>238203.5244027307</v>
+        <v>335169.8724379073</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3092,22 +3342,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C71" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D71" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E71" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F71" t="n">
-        <v>4754.8497</v>
+        <v>30440.4254</v>
       </c>
       <c r="G71" t="n">
-        <v>233448.6747027307</v>
+        <v>365610.2978379073</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3128,28 +3378,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C72" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D72" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E72" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>13001.31076229508</v>
       </c>
       <c r="G72" t="n">
-        <v>233449.6747027307</v>
+        <v>352608.9870756122</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3164,22 +3414,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C73" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D73" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E73" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F73" t="n">
-        <v>102654.6769</v>
+        <v>2393.2708</v>
       </c>
       <c r="G73" t="n">
-        <v>130794.9978027307</v>
+        <v>350215.7162756122</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3200,28 +3450,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C74" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D74" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E74" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F74" t="n">
-        <v>3659.5104</v>
+        <v>60439.3063</v>
       </c>
       <c r="G74" t="n">
-        <v>134454.5082027307</v>
+        <v>289776.4099756122</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3236,22 +3486,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C75" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D75" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E75" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F75" t="n">
-        <v>1413</v>
+        <v>7866.0765</v>
       </c>
       <c r="G75" t="n">
-        <v>134454.5082027307</v>
+        <v>281910.3334756122</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3272,22 +3522,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C76" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D76" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E76" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F76" t="n">
-        <v>2514</v>
+        <v>847.457627118644</v>
       </c>
       <c r="G76" t="n">
-        <v>134454.5082027307</v>
+        <v>282757.7911027308</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3308,22 +3558,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C77" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D77" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E77" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F77" t="n">
-        <v>263</v>
+        <v>20783.3782</v>
       </c>
       <c r="G77" t="n">
-        <v>134454.5082027307</v>
+        <v>303541.1693027308</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3344,22 +3594,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C78" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D78" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E78" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>19240.4997</v>
       </c>
       <c r="G78" t="n">
-        <v>134454.5082027307</v>
+        <v>322781.6690027307</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3380,22 +3630,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C79" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D79" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E79" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F79" t="n">
-        <v>5032.184</v>
+        <v>3679.0084</v>
       </c>
       <c r="G79" t="n">
-        <v>139486.6922027307</v>
+        <v>322781.6690027307</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3416,22 +3666,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C80" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D80" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E80" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F80" t="n">
-        <v>3014</v>
+        <v>11017.5844</v>
       </c>
       <c r="G80" t="n">
-        <v>136472.6922027307</v>
+        <v>311764.0846027308</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3452,22 +3702,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C81" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D81" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E81" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F81" t="n">
-        <v>13</v>
+        <v>62.6776</v>
       </c>
       <c r="G81" t="n">
-        <v>136472.6922027307</v>
+        <v>311764.0846027308</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3488,22 +3738,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C82" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D82" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E82" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>7800</v>
       </c>
       <c r="G82" t="n">
-        <v>136472.6922027307</v>
+        <v>311764.0846027308</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3524,22 +3774,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C83" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D83" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E83" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F83" t="n">
-        <v>1959</v>
+        <v>8043</v>
       </c>
       <c r="G83" t="n">
-        <v>138431.6922027307</v>
+        <v>303721.0846027308</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3560,22 +3810,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C84" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D84" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E84" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>3669.8109</v>
       </c>
       <c r="G84" t="n">
-        <v>138428.6922027307</v>
+        <v>303721.0846027308</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3596,22 +3846,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C85" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D85" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F85" t="n">
-        <v>990.25</v>
+        <v>1025.0621</v>
       </c>
       <c r="G85" t="n">
-        <v>139418.9422027307</v>
+        <v>303721.0846027308</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3632,22 +3882,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C86" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D86" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E86" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F86" t="n">
-        <v>210</v>
+        <v>743.2608</v>
       </c>
       <c r="G86" t="n">
-        <v>139208.9422027307</v>
+        <v>303721.0846027308</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3668,22 +3918,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C87" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D87" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E87" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>580.1292</v>
       </c>
       <c r="G87" t="n">
-        <v>139208.9422027307</v>
+        <v>303140.9554027307</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3704,7 +3954,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C88" t="n">
         <v>115</v>
@@ -3713,13 +3963,13 @@
         <v>115</v>
       </c>
       <c r="E88" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F88" t="n">
-        <v>7208.9866</v>
+        <v>5418.3347</v>
       </c>
       <c r="G88" t="n">
-        <v>146417.9288027307</v>
+        <v>303140.9554027307</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3740,22 +3990,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C89" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D89" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>16149.0438</v>
       </c>
       <c r="G89" t="n">
-        <v>146411.9288027307</v>
+        <v>286991.9116027307</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3776,22 +4026,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C90" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D90" t="n">
         <v>114</v>
       </c>
       <c r="E90" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F90" t="n">
-        <v>37336.1052</v>
+        <v>7107.6107</v>
       </c>
       <c r="G90" t="n">
-        <v>183748.0340027307</v>
+        <v>279884.3009027307</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3812,22 +4062,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C91" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D91" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E91" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F91" t="n">
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>183748.0340027307</v>
+        <v>279894.3009027307</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3848,22 +4098,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C92" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D92" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E92" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>3508.5808</v>
       </c>
       <c r="G92" t="n">
-        <v>183748.0340027307</v>
+        <v>279894.3009027307</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3884,22 +4134,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C93" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D93" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F93" t="n">
-        <v>3114.0973</v>
+        <v>464.796</v>
       </c>
       <c r="G93" t="n">
-        <v>183748.0340027307</v>
+        <v>279894.3009027307</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3920,22 +4170,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C94" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D94" t="n">
         <v>113</v>
       </c>
       <c r="E94" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F94" t="n">
-        <v>3050.8849</v>
+        <v>27827.0252</v>
       </c>
       <c r="G94" t="n">
-        <v>183748.0340027307</v>
+        <v>252067.2757027307</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3956,10 +4206,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D95" t="n">
         <v>113</v>
@@ -3968,10 +4218,10 @@
         <v>112</v>
       </c>
       <c r="F95" t="n">
-        <v>6633.316</v>
+        <v>6763.6948</v>
       </c>
       <c r="G95" t="n">
-        <v>190381.3500027307</v>
+        <v>245303.5809027307</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3992,22 +4242,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C96" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D96" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F96" t="n">
-        <v>27306.0113</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>163075.3387027307</v>
+        <v>245313.5809027307</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4028,22 +4278,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C97" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D97" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E97" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>7111.0565</v>
       </c>
       <c r="G97" t="n">
-        <v>163075.3387027307</v>
+        <v>238202.5244027307</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4064,22 +4314,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C98" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D98" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E98" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>2800</v>
       </c>
       <c r="G98" t="n">
-        <v>163075.3387027307</v>
+        <v>238202.5244027307</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4100,22 +4350,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C99" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D99" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E99" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F99" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>163075.3387027307</v>
+        <v>238203.5244027307</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4136,22 +4386,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C100" t="n">
         <v>112</v>
       </c>
       <c r="D100" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E100" t="n">
         <v>112</v>
       </c>
       <c r="F100" t="n">
-        <v>9</v>
+        <v>4754.8497</v>
       </c>
       <c r="G100" t="n">
-        <v>163075.3387027307</v>
+        <v>233448.6747027307</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4172,22 +4422,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C101" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D101" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E101" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>163075.3387027307</v>
+        <v>233449.6747027307</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4208,22 +4458,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C102" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D102" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E102" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F102" t="n">
-        <v>20232.4347</v>
+        <v>102654.6769</v>
       </c>
       <c r="G102" t="n">
-        <v>183307.7734027307</v>
+        <v>130794.9978027307</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4244,22 +4494,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C103" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D103" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E103" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F103" t="n">
-        <v>8849.557500000001</v>
+        <v>3659.5104</v>
       </c>
       <c r="G103" t="n">
-        <v>183307.7734027307</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4280,22 +4530,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C104" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D104" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F104" t="n">
-        <v>10512.7805</v>
+        <v>1413</v>
       </c>
       <c r="G104" t="n">
-        <v>183307.7734027307</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4316,22 +4566,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C105" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D105" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E105" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F105" t="n">
-        <v>4</v>
+        <v>2514</v>
       </c>
       <c r="G105" t="n">
-        <v>183307.7734027307</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4352,22 +4602,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D106" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="G106" t="n">
-        <v>183307.7734027307</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4388,22 +4638,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C107" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D107" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E107" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F107" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G107" t="n">
-        <v>183307.7734027307</v>
+        <v>134454.5082027307</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4424,22 +4674,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C108" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D108" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E108" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F108" t="n">
-        <v>9</v>
+        <v>5032.184</v>
       </c>
       <c r="G108" t="n">
-        <v>183307.7734027307</v>
+        <v>139486.6922027307</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4460,22 +4710,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C109" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D109" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E109" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>3014</v>
       </c>
       <c r="G109" t="n">
-        <v>183307.7734027307</v>
+        <v>136472.6922027307</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4496,22 +4746,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C110" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D110" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E110" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F110" t="n">
-        <v>3894.2068</v>
+        <v>13</v>
       </c>
       <c r="G110" t="n">
-        <v>183307.7734027307</v>
+        <v>136472.6922027307</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4532,22 +4782,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C111" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D111" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E111" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F111" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>183308.8734027307</v>
+        <v>136472.6922027307</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4568,22 +4818,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D112" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E112" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F112" t="n">
-        <v>10001</v>
+        <v>1959</v>
       </c>
       <c r="G112" t="n">
-        <v>193309.8734027307</v>
+        <v>138431.6922027307</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4604,22 +4854,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D113" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E113" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F113" t="n">
-        <v>1008</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>192301.8734027307</v>
+        <v>138428.6922027307</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4640,22 +4890,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C114" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D114" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E114" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F114" t="n">
-        <v>1.1</v>
+        <v>990.25</v>
       </c>
       <c r="G114" t="n">
-        <v>192302.9734027307</v>
+        <v>139418.9422027307</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4676,22 +4926,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C115" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D115" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E115" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F115" t="n">
-        <v>713.9246000000001</v>
+        <v>210</v>
       </c>
       <c r="G115" t="n">
-        <v>191589.0488027307</v>
+        <v>139208.9422027307</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4712,22 +4962,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C116" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D116" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E116" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F116" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G116" t="n">
-        <v>191594.0488027307</v>
+        <v>139208.9422027307</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4748,22 +4998,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C117" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D117" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E117" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F117" t="n">
-        <v>4</v>
+        <v>7208.9866</v>
       </c>
       <c r="G117" t="n">
-        <v>191590.0488027307</v>
+        <v>146417.9288027307</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4784,22 +5034,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C118" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D118" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E118" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F118" t="n">
-        <v>16785.1027</v>
+        <v>6</v>
       </c>
       <c r="G118" t="n">
-        <v>191590.0488027307</v>
+        <v>146411.9288027307</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4820,22 +5070,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C119" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D119" t="n">
         <v>114</v>
       </c>
       <c r="E119" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F119" t="n">
-        <v>4425.7787</v>
+        <v>37336.1052</v>
       </c>
       <c r="G119" t="n">
-        <v>191590.0488027307</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4856,22 +5106,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C120" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D120" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E120" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>191587.0488027307</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4892,22 +5142,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D121" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E121" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>191588.0488027307</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4928,22 +5178,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C122" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D122" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E122" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F122" t="n">
-        <v>559</v>
+        <v>3114.0973</v>
       </c>
       <c r="G122" t="n">
-        <v>192147.0488027307</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4970,16 +5220,16 @@
         <v>112</v>
       </c>
       <c r="D123" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E123" t="n">
         <v>112</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>3050.8849</v>
       </c>
       <c r="G123" t="n">
-        <v>192146.0488027307</v>
+        <v>183748.0340027307</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5000,22 +5250,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C124" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D124" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E124" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>6633.316</v>
       </c>
       <c r="G124" t="n">
-        <v>192147.0488027307</v>
+        <v>190381.3500027307</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5036,22 +5286,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C125" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D125" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E125" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F125" t="n">
-        <v>1.45</v>
+        <v>27306.0113</v>
       </c>
       <c r="G125" t="n">
-        <v>192147.0488027307</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5072,22 +5322,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C126" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D126" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E126" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F126" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>192147.0488027307</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5120,10 +5370,10 @@
         <v>112</v>
       </c>
       <c r="F127" t="n">
-        <v>3115.7781</v>
+        <v>3</v>
       </c>
       <c r="G127" t="n">
-        <v>189031.2707027307</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5144,22 +5394,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C128" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D128" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E128" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F128" t="n">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G128" t="n">
-        <v>189148.2707027307</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5180,22 +5430,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C129" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D129" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E129" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F129" t="n">
-        <v>1784.6747</v>
+        <v>9</v>
       </c>
       <c r="G129" t="n">
-        <v>187363.5960027307</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5216,22 +5466,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C130" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D130" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E130" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F130" t="n">
-        <v>295.9294</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>187659.5254027307</v>
+        <v>163075.3387027307</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5252,22 +5502,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C131" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D131" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E131" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F131" t="n">
-        <v>55.5</v>
+        <v>20232.4347</v>
       </c>
       <c r="G131" t="n">
-        <v>187604.0254027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5300,10 +5550,10 @@
         <v>113</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>8849.557500000001</v>
       </c>
       <c r="G132" t="n">
-        <v>187605.0254027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5327,19 +5577,19 @@
         <v>113</v>
       </c>
       <c r="C133" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D133" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E133" t="n">
         <v>113</v>
       </c>
       <c r="F133" t="n">
-        <v>87</v>
+        <v>10512.7805</v>
       </c>
       <c r="G133" t="n">
-        <v>187692.0254027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5360,22 +5610,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C134" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D134" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E134" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G134" t="n">
-        <v>187692.0254027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5396,22 +5646,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C135" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D135" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E135" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F135" t="n">
-        <v>20766</v>
+        <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>187692.0254027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5432,22 +5682,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C136" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D136" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E136" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F136" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G136" t="n">
-        <v>187697.0254027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5480,10 +5730,10 @@
         <v>113</v>
       </c>
       <c r="F137" t="n">
-        <v>7273.6017</v>
+        <v>9</v>
       </c>
       <c r="G137" t="n">
-        <v>180423.4237027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5504,22 +5754,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C138" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D138" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E138" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>180424.4237027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5540,22 +5790,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C139" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D139" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E139" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F139" t="n">
-        <v>2056.0137</v>
+        <v>3894.2068</v>
       </c>
       <c r="G139" t="n">
-        <v>178368.4100027307</v>
+        <v>183307.7734027307</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5579,19 +5829,19 @@
         <v>114</v>
       </c>
       <c r="C140" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D140" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E140" t="n">
         <v>114</v>
       </c>
       <c r="F140" t="n">
-        <v>2364</v>
+        <v>1.1</v>
       </c>
       <c r="G140" t="n">
-        <v>180732.4100027307</v>
+        <v>183308.8734027307</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5607,6 +5857,1050 @@
       </c>
       <c r="N140" t="inlineStr"/>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>113</v>
+      </c>
+      <c r="C141" t="n">
+        <v>117</v>
+      </c>
+      <c r="D141" t="n">
+        <v>117</v>
+      </c>
+      <c r="E141" t="n">
+        <v>113</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G141" t="n">
+        <v>193309.8734027307</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>117</v>
+      </c>
+      <c r="C142" t="n">
+        <v>115</v>
+      </c>
+      <c r="D142" t="n">
+        <v>117</v>
+      </c>
+      <c r="E142" t="n">
+        <v>115</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1008</v>
+      </c>
+      <c r="G142" t="n">
+        <v>192301.8734027307</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>117</v>
+      </c>
+      <c r="C143" t="n">
+        <v>117</v>
+      </c>
+      <c r="D143" t="n">
+        <v>117</v>
+      </c>
+      <c r="E143" t="n">
+        <v>117</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>192302.9734027307</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>115</v>
+      </c>
+      <c r="C144" t="n">
+        <v>113</v>
+      </c>
+      <c r="D144" t="n">
+        <v>115</v>
+      </c>
+      <c r="E144" t="n">
+        <v>113</v>
+      </c>
+      <c r="F144" t="n">
+        <v>713.9246000000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>191589.0488027307</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>114</v>
+      </c>
+      <c r="C145" t="n">
+        <v>114</v>
+      </c>
+      <c r="D145" t="n">
+        <v>114</v>
+      </c>
+      <c r="E145" t="n">
+        <v>114</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>191594.0488027307</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>113</v>
+      </c>
+      <c r="C146" t="n">
+        <v>113</v>
+      </c>
+      <c r="D146" t="n">
+        <v>113</v>
+      </c>
+      <c r="E146" t="n">
+        <v>113</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4</v>
+      </c>
+      <c r="G146" t="n">
+        <v>191590.0488027307</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>113</v>
+      </c>
+      <c r="C147" t="n">
+        <v>113</v>
+      </c>
+      <c r="D147" t="n">
+        <v>113</v>
+      </c>
+      <c r="E147" t="n">
+        <v>113</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16785.1027</v>
+      </c>
+      <c r="G147" t="n">
+        <v>191590.0488027307</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>114</v>
+      </c>
+      <c r="C148" t="n">
+        <v>113</v>
+      </c>
+      <c r="D148" t="n">
+        <v>114</v>
+      </c>
+      <c r="E148" t="n">
+        <v>113</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4425.7787</v>
+      </c>
+      <c r="G148" t="n">
+        <v>191590.0488027307</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>111</v>
+      </c>
+      <c r="C149" t="n">
+        <v>111</v>
+      </c>
+      <c r="D149" t="n">
+        <v>111</v>
+      </c>
+      <c r="E149" t="n">
+        <v>111</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="n">
+        <v>191587.0488027307</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>113</v>
+      </c>
+      <c r="C150" t="n">
+        <v>113</v>
+      </c>
+      <c r="D150" t="n">
+        <v>113</v>
+      </c>
+      <c r="E150" t="n">
+        <v>113</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>191588.0488027307</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>114</v>
+      </c>
+      <c r="C151" t="n">
+        <v>115</v>
+      </c>
+      <c r="D151" t="n">
+        <v>115</v>
+      </c>
+      <c r="E151" t="n">
+        <v>114</v>
+      </c>
+      <c r="F151" t="n">
+        <v>559</v>
+      </c>
+      <c r="G151" t="n">
+        <v>192147.0488027307</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>112</v>
+      </c>
+      <c r="C152" t="n">
+        <v>112</v>
+      </c>
+      <c r="D152" t="n">
+        <v>112</v>
+      </c>
+      <c r="E152" t="n">
+        <v>112</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>192146.0488027307</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>115</v>
+      </c>
+      <c r="C153" t="n">
+        <v>115</v>
+      </c>
+      <c r="D153" t="n">
+        <v>115</v>
+      </c>
+      <c r="E153" t="n">
+        <v>115</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>192147.0488027307</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>115</v>
+      </c>
+      <c r="C154" t="n">
+        <v>115</v>
+      </c>
+      <c r="D154" t="n">
+        <v>115</v>
+      </c>
+      <c r="E154" t="n">
+        <v>115</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G154" t="n">
+        <v>192147.0488027307</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>115</v>
+      </c>
+      <c r="C155" t="n">
+        <v>115</v>
+      </c>
+      <c r="D155" t="n">
+        <v>115</v>
+      </c>
+      <c r="E155" t="n">
+        <v>115</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>192147.0488027307</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>112</v>
+      </c>
+      <c r="C156" t="n">
+        <v>112</v>
+      </c>
+      <c r="D156" t="n">
+        <v>112</v>
+      </c>
+      <c r="E156" t="n">
+        <v>112</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3115.7781</v>
+      </c>
+      <c r="G156" t="n">
+        <v>189031.2707027307</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>113</v>
+      </c>
+      <c r="C157" t="n">
+        <v>114</v>
+      </c>
+      <c r="D157" t="n">
+        <v>114</v>
+      </c>
+      <c r="E157" t="n">
+        <v>113</v>
+      </c>
+      <c r="F157" t="n">
+        <v>117</v>
+      </c>
+      <c r="G157" t="n">
+        <v>189148.2707027307</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>111</v>
+      </c>
+      <c r="C158" t="n">
+        <v>111</v>
+      </c>
+      <c r="D158" t="n">
+        <v>111</v>
+      </c>
+      <c r="E158" t="n">
+        <v>111</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1784.6747</v>
+      </c>
+      <c r="G158" t="n">
+        <v>187363.5960027307</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>111</v>
+      </c>
+      <c r="C159" t="n">
+        <v>113</v>
+      </c>
+      <c r="D159" t="n">
+        <v>113</v>
+      </c>
+      <c r="E159" t="n">
+        <v>111</v>
+      </c>
+      <c r="F159" t="n">
+        <v>295.9294</v>
+      </c>
+      <c r="G159" t="n">
+        <v>187659.5254027307</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>111</v>
+      </c>
+      <c r="C160" t="n">
+        <v>111</v>
+      </c>
+      <c r="D160" t="n">
+        <v>111</v>
+      </c>
+      <c r="E160" t="n">
+        <v>111</v>
+      </c>
+      <c r="F160" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>187604.0254027307</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>113</v>
+      </c>
+      <c r="C161" t="n">
+        <v>113</v>
+      </c>
+      <c r="D161" t="n">
+        <v>113</v>
+      </c>
+      <c r="E161" t="n">
+        <v>113</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>187605.0254027307</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>113</v>
+      </c>
+      <c r="C162" t="n">
+        <v>114</v>
+      </c>
+      <c r="D162" t="n">
+        <v>114</v>
+      </c>
+      <c r="E162" t="n">
+        <v>113</v>
+      </c>
+      <c r="F162" t="n">
+        <v>87</v>
+      </c>
+      <c r="G162" t="n">
+        <v>187692.0254027307</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>114</v>
+      </c>
+      <c r="C163" t="n">
+        <v>114</v>
+      </c>
+      <c r="D163" t="n">
+        <v>114</v>
+      </c>
+      <c r="E163" t="n">
+        <v>114</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" t="n">
+        <v>187692.0254027307</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>114</v>
+      </c>
+      <c r="C164" t="n">
+        <v>114</v>
+      </c>
+      <c r="D164" t="n">
+        <v>114</v>
+      </c>
+      <c r="E164" t="n">
+        <v>114</v>
+      </c>
+      <c r="F164" t="n">
+        <v>20766</v>
+      </c>
+      <c r="G164" t="n">
+        <v>187692.0254027307</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>114</v>
+      </c>
+      <c r="C165" t="n">
+        <v>115</v>
+      </c>
+      <c r="D165" t="n">
+        <v>115</v>
+      </c>
+      <c r="E165" t="n">
+        <v>114</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5</v>
+      </c>
+      <c r="G165" t="n">
+        <v>187697.0254027307</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>113</v>
+      </c>
+      <c r="C166" t="n">
+        <v>113</v>
+      </c>
+      <c r="D166" t="n">
+        <v>113</v>
+      </c>
+      <c r="E166" t="n">
+        <v>113</v>
+      </c>
+      <c r="F166" t="n">
+        <v>7273.6017</v>
+      </c>
+      <c r="G166" t="n">
+        <v>180423.4237027307</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>115</v>
+      </c>
+      <c r="C167" t="n">
+        <v>115</v>
+      </c>
+      <c r="D167" t="n">
+        <v>115</v>
+      </c>
+      <c r="E167" t="n">
+        <v>115</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>180424.4237027307</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>114</v>
+      </c>
+      <c r="C168" t="n">
+        <v>114</v>
+      </c>
+      <c r="D168" t="n">
+        <v>114</v>
+      </c>
+      <c r="E168" t="n">
+        <v>114</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2056.0137</v>
+      </c>
+      <c r="G168" t="n">
+        <v>178368.4100027307</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>114</v>
+      </c>
+      <c r="C169" t="n">
+        <v>115</v>
+      </c>
+      <c r="D169" t="n">
+        <v>115</v>
+      </c>
+      <c r="E169" t="n">
+        <v>114</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2364</v>
+      </c>
+      <c r="G169" t="n">
+        <v>180732.4100027307</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>24920.79752297297</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>24921.79752297297</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="J3" t="n">
         <v>108</v>
       </c>
-      <c r="K3" t="n">
-        <v>108</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>24060.45406371371</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
-      </c>
-      <c r="K4" t="n">
         <v>108</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>23760.45406371371</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="J5" t="n">
         <v>108</v>
       </c>
-      <c r="K5" t="n">
-        <v>108</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>23237.23196371371</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J6" t="n">
         <v>107</v>
       </c>
-      <c r="K6" t="n">
-        <v>107</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>23238.23196371371</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J7" t="n">
-        <v>106</v>
-      </c>
-      <c r="K7" t="n">
         <v>107</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>23560.41026371371</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J8" t="n">
-        <v>109</v>
-      </c>
-      <c r="K8" t="n">
         <v>107</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +722,19 @@
         <v>23559.58856371371</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J9" t="n">
         <v>110</v>
       </c>
-      <c r="K9" t="n">
-        <v>110</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,26 +759,23 @@
         <v>128431.2045637137</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J10" t="n">
-        <v>109</v>
-      </c>
-      <c r="K10" t="n">
-        <v>110</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>110</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,22 +802,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>110</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>110</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,22 +841,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>110</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,22 +880,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>110</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>110</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,22 +919,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>110</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>110</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,22 +958,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>110</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>110</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,22 +997,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>110</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>110</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1086,22 +1036,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>110</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>110</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1128,22 +1075,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>110</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>110</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1170,22 +1114,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>110</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>110</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1212,22 +1153,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>110</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>110</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1254,22 +1192,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>110</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>110</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1296,22 +1231,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>110</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>110</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1338,22 +1270,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>110</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>110</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1380,22 +1309,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>110</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>110</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1422,22 +1348,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>110</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>110</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1464,22 +1387,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>110</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>110</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1506,22 +1426,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>110</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>110</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1548,22 +1465,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>110</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>110</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1590,22 +1504,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>110</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>110</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1632,22 +1543,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>110</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>110</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1674,22 +1582,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>110</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>110</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1716,22 +1621,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>110</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>110</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1758,22 +1660,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>110</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>110</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1800,22 +1699,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>110</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>110</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1842,22 +1738,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>110</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>110</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1884,22 +1777,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>110</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>110</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1926,22 +1816,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>110</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>110</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1968,22 +1855,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>110</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>110</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2010,22 +1894,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>110</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>110</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2052,22 +1933,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>110</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>110</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2094,22 +1972,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>110</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>110</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2136,22 +2011,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>110</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>110</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2178,22 +2050,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>110</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>110</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2220,22 +2089,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>110</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>110</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,24 +2126,23 @@
         <v>127451.9220637137</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>110</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>109</v>
+      </c>
+      <c r="J45" t="n">
+        <v>110</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2304,22 +2169,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>110</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>110</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,26 +2206,21 @@
         <v>127451.9220637137</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>109</v>
-      </c>
-      <c r="K47" t="n">
-        <v>110</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>110</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2388,26 +2245,21 @@
         <v>127451.9220637137</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>109</v>
-      </c>
-      <c r="K48" t="n">
-        <v>110</v>
-      </c>
-      <c r="L48" t="inlineStr">
+        <v>110</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2432,24 +2284,23 @@
         <v>127452.9220637137</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>110</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>109</v>
+      </c>
+      <c r="J49" t="n">
+        <v>110</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2474,26 +2325,23 @@
         <v>126341.6154637137</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J50" t="n">
         <v>110</v>
       </c>
-      <c r="K50" t="n">
-        <v>110</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2518,26 +2366,23 @@
         <v>126339.4196637137</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J51" t="n">
-        <v>109</v>
-      </c>
-      <c r="K51" t="n">
-        <v>110</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>110</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2562,26 +2407,23 @@
         <v>126339.4196637137</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="J52" t="n">
-        <v>108</v>
-      </c>
-      <c r="K52" t="n">
-        <v>110</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>110</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2606,26 +2448,23 @@
         <v>126340.4196637137</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="J53" t="n">
-        <v>108</v>
-      </c>
-      <c r="K53" t="n">
-        <v>110</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>110</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2650,26 +2489,23 @@
         <v>126248.6765637137</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J54" t="n">
-        <v>112</v>
-      </c>
-      <c r="K54" t="n">
-        <v>110</v>
-      </c>
-      <c r="L54" t="inlineStr">
+        <v>110</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2694,26 +2530,21 @@
         <v>131784.2534637137</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>110</v>
       </c>
-      <c r="K55" t="n">
-        <v>110</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2738,26 +2569,21 @@
         <v>176600.6925637137</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>111</v>
-      </c>
-      <c r="K56" t="n">
-        <v>110</v>
-      </c>
-      <c r="L56" t="inlineStr">
+        <v>110</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2784,22 +2610,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>110</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>110</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2826,22 +2649,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>110</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>110</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2868,22 +2688,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>110</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>110</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2910,22 +2727,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>110</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>110</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2952,22 +2766,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>110</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2994,22 +2805,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>110</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>110</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3036,22 +2844,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>110</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>110</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3078,22 +2883,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>110</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>110</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3118,24 +2920,23 @@
         <v>349500.3407637137</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>110</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>110</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.122272727272727</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>1.037735849056604</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3160,24 +2961,15 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>110</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3202,24 +2994,15 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>110</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3244,26 +3027,15 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>110</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1.131363636363637</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.037735849056604</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3288,18 +3060,15 @@
         <v>347717.1128637137</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3324,18 +3093,15 @@
         <v>335169.8724379073</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3360,18 +3126,15 @@
         <v>365610.2978379073</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3398,16 +3161,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3434,16 +3194,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3470,16 +3227,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3506,16 +3260,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3542,16 +3293,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3578,16 +3326,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3614,16 +3359,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3650,16 +3392,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3684,18 +3423,15 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3720,18 +3456,15 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3756,18 +3489,15 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3794,16 +3524,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3828,18 +3555,15 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3864,18 +3588,15 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3900,18 +3621,15 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3936,18 +3654,15 @@
         <v>303140.9554027307</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3972,18 +3687,15 @@
         <v>303140.9554027307</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4010,16 +3722,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4046,16 +3755,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4082,16 +3788,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4118,16 +3821,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4154,16 +3854,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4190,16 +3887,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4226,16 +3920,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4260,18 +3951,15 @@
         <v>245313.5809027307</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4296,18 +3984,15 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4334,16 +4019,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4370,16 +4052,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4406,16 +4085,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4442,16 +4118,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4478,16 +4151,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4514,16 +4184,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4550,16 +4217,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4586,16 +4250,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4622,16 +4283,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4658,16 +4316,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4694,16 +4349,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4730,16 +4382,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4766,16 +4415,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4802,16 +4448,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4838,16 +4481,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4874,16 +4514,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4910,16 +4547,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4946,16 +4580,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4982,16 +4613,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5018,16 +4646,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5054,16 +4679,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5090,16 +4712,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5126,16 +4745,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5162,16 +4778,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5198,16 +4811,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5234,16 +4844,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5270,16 +4877,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5306,16 +4910,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5342,16 +4943,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5378,16 +4976,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5414,16 +5009,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5450,16 +5042,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5486,16 +5075,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5522,16 +5108,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5558,16 +5141,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5594,16 +5174,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5630,16 +5207,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5666,16 +5240,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5702,16 +5273,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5738,16 +5306,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5774,16 +5339,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5810,16 +5372,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5846,16 +5405,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5882,16 +5438,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5918,16 +5471,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5952,18 +5502,15 @@
         <v>192302.9734027307</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5988,18 +5535,15 @@
         <v>191589.0488027307</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6024,18 +5568,15 @@
         <v>191594.0488027307</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6060,18 +5601,15 @@
         <v>191590.0488027307</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6096,18 +5634,15 @@
         <v>191590.0488027307</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6134,16 +5669,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6170,16 +5702,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6206,16 +5735,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6242,16 +5768,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6278,16 +5801,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6314,16 +5834,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6350,16 +5867,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6386,16 +5900,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6422,16 +5933,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6458,16 +5966,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6492,18 +5997,15 @@
         <v>187363.5960027307</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6530,16 +6032,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6564,18 +6063,19 @@
         <v>187604.0254027307</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="J160" t="n">
+        <v>113</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6602,16 +6102,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>113</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6638,16 +6141,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>113</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6674,16 +6180,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>113</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6710,16 +6219,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>113</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6746,16 +6258,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>113</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6782,16 +6297,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>113</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6818,16 +6336,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>113</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6854,16 +6375,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>113</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6890,18 +6414,21 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>113</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>24920.79752297297</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>24921.79752297297</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>108</v>
@@ -521,7 +521,7 @@
         <v>24060.45406371371</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>110</v>
@@ -562,7 +562,7 @@
         <v>23760.45406371371</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>108</v>
@@ -603,7 +603,7 @@
         <v>23237.23196371371</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>107</v>
@@ -640,7 +640,7 @@
         <v>23238.23196371371</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>106</v>
@@ -681,7 +681,7 @@
         <v>23560.41026371371</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>109</v>
@@ -722,7 +722,7 @@
         <v>23559.58856371371</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>110</v>
@@ -759,7 +759,7 @@
         <v>128431.2045637137</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>109</v>
@@ -2126,11 +2126,9 @@
         <v>127451.9220637137</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>110</v>
       </c>
@@ -2206,9 +2204,11 @@
         <v>127451.9220637137</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>109</v>
+      </c>
       <c r="J47" t="n">
         <v>110</v>
       </c>
@@ -2245,9 +2245,11 @@
         <v>127451.9220637137</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>109</v>
+      </c>
       <c r="J48" t="n">
         <v>110</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>127452.9220637137</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>109</v>
@@ -2325,11 +2327,9 @@
         <v>126341.6154637137</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>110</v>
       </c>
@@ -2366,11 +2366,9 @@
         <v>126339.4196637137</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>110</v>
       </c>
@@ -2407,7 +2405,7 @@
         <v>126339.4196637137</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>108</v>
@@ -2448,7 +2446,7 @@
         <v>126340.4196637137</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>108</v>
@@ -2489,7 +2487,7 @@
         <v>126248.6765637137</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>112</v>
@@ -2530,9 +2528,11 @@
         <v>131784.2534637137</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>110</v>
+      </c>
       <c r="J55" t="n">
         <v>110</v>
       </c>
@@ -2569,9 +2569,11 @@
         <v>176600.6925637137</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>111</v>
+      </c>
       <c r="J56" t="n">
         <v>110</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>349500.3407637137</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
@@ -2928,15 +2930,13 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.122272727272727</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.037735849056604</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2961,11 +2961,17 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>110</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2994,11 +3000,17 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>110</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3027,11 +3039,17 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>110</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3060,11 +3078,17 @@
         <v>347717.1128637137</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>110</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3093,15 +3117,23 @@
         <v>335169.8724379073</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>110</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>1.095</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.037735849056604</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3126,7 +3158,7 @@
         <v>365610.2978379073</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3159,7 +3191,7 @@
         <v>352608.9870756122</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3192,7 +3224,7 @@
         <v>350215.7162756122</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3225,7 +3257,7 @@
         <v>289776.4099756122</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3258,7 +3290,7 @@
         <v>281910.3334756122</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3291,7 +3323,7 @@
         <v>282757.7911027308</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3324,7 +3356,7 @@
         <v>303541.1693027308</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3357,7 +3389,7 @@
         <v>322781.6690027307</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3390,7 +3422,7 @@
         <v>322781.6690027307</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3423,7 +3455,7 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3456,7 +3488,7 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3489,7 +3521,7 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3522,7 +3554,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3555,7 +3587,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3588,7 +3620,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3621,7 +3653,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3654,7 +3686,7 @@
         <v>303140.9554027307</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3687,7 +3719,7 @@
         <v>303140.9554027307</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3720,7 +3752,7 @@
         <v>286991.9116027307</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3753,7 +3785,7 @@
         <v>279884.3009027307</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3786,7 +3818,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3819,7 +3851,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3852,7 +3884,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3885,7 +3917,7 @@
         <v>252067.2757027307</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3918,7 +3950,7 @@
         <v>245303.5809027307</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3951,7 +3983,7 @@
         <v>245313.5809027307</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3984,7 +4016,7 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4017,7 +4049,7 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4050,7 +4082,7 @@
         <v>238203.5244027307</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4083,7 +4115,7 @@
         <v>233448.6747027307</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4149,7 +4181,7 @@
         <v>130794.9978027307</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4182,7 +4214,7 @@
         <v>134454.5082027307</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4347,7 +4379,7 @@
         <v>139486.6922027307</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4380,7 +4412,7 @@
         <v>136472.6922027307</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4413,7 +4445,7 @@
         <v>136472.6922027307</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4446,7 +4478,7 @@
         <v>136472.6922027307</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4479,7 +4511,7 @@
         <v>138431.6922027307</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4512,7 +4544,7 @@
         <v>138428.6922027307</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4545,7 +4577,7 @@
         <v>139418.9422027307</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4578,7 +4610,7 @@
         <v>139208.9422027307</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4611,7 +4643,7 @@
         <v>139208.9422027307</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4644,7 +4676,7 @@
         <v>146417.9288027307</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5502,7 +5534,7 @@
         <v>192302.9734027307</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5535,7 +5567,7 @@
         <v>191589.0488027307</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5568,7 +5600,7 @@
         <v>191594.0488027307</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5601,7 +5633,7 @@
         <v>191590.0488027307</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5634,7 +5666,7 @@
         <v>191590.0488027307</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5997,7 +6029,7 @@
         <v>187363.5960027307</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6063,14 +6095,10 @@
         <v>187604.0254027307</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>113</v>
-      </c>
-      <c r="J160" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -6103,14 +6131,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>113</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6142,14 +6164,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>113</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6181,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>113</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6220,14 +6230,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>113</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6259,14 +6263,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>113</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6298,14 +6296,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>113</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6337,14 +6329,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>113</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6376,14 +6362,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>113</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6415,20 +6395,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>113</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>23760.45406371371</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>108</v>
       </c>
@@ -722,14 +720,10 @@
         <v>23559.58856371371</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>110</v>
-      </c>
-      <c r="J9" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +753,11 @@
         <v>128431.2045637137</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>109</v>
-      </c>
-      <c r="J10" t="n">
-        <v>110</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +789,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>110</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>110</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -881,14 +855,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>110</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -920,14 +888,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>110</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -959,14 +921,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>110</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +954,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>110</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +987,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>110</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1073,17 +1017,11 @@
         <v>203942.8107637137</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>110</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1112,17 +1050,11 @@
         <v>202219.5203637137</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>110</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1151,17 +1083,11 @@
         <v>202219.5203637137</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>110</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1119,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>110</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1152,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>110</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1185,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>110</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>110</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1349,14 +1251,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>110</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1284,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>110</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1427,14 +1317,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>110</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1350,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>110</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1505,14 +1383,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>110</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1544,14 +1416,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>110</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1583,14 +1449,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>110</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1622,14 +1482,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>110</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1661,14 +1515,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>110</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1548,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>110</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1739,14 +1581,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>110</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1778,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>110</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1817,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>110</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1856,14 +1680,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>110</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1895,14 +1713,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>110</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1934,14 +1746,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>110</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1973,14 +1779,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>110</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2012,14 +1812,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>110</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2051,14 +1845,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>110</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2090,14 +1878,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>110</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2129,14 +1911,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>110</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2168,14 +1944,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>110</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2204,19 +1974,11 @@
         <v>127451.9220637137</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>110</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2245,19 +2007,11 @@
         <v>127451.9220637137</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>109</v>
-      </c>
-      <c r="J48" t="n">
-        <v>110</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2286,19 +2040,11 @@
         <v>127452.9220637137</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>109</v>
-      </c>
-      <c r="J49" t="n">
-        <v>110</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2076,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>110</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2109,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>110</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2405,19 +2139,11 @@
         <v>126339.4196637137</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>108</v>
-      </c>
-      <c r="J52" t="n">
-        <v>110</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2446,19 +2172,11 @@
         <v>126340.4196637137</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>110</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2487,19 +2205,11 @@
         <v>126248.6765637137</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>112</v>
-      </c>
-      <c r="J54" t="n">
-        <v>110</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2528,19 +2238,11 @@
         <v>131784.2534637137</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>110</v>
-      </c>
-      <c r="J55" t="n">
-        <v>110</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2569,19 +2271,11 @@
         <v>176600.6925637137</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>111</v>
-      </c>
-      <c r="J56" t="n">
-        <v>110</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2613,14 +2307,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>110</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2652,14 +2340,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>110</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2373,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>110</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2730,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>110</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2769,14 +2439,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>110</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2808,14 +2472,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>110</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2847,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>110</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2886,14 +2538,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>110</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2925,14 +2571,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>110</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2964,14 +2604,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>110</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3003,14 +2637,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>110</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3042,14 +2670,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>110</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3081,14 +2703,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>110</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3117,23 +2733,15 @@
         <v>335169.8724379073</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>110</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.095</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.037735849056604</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3158,7 +2766,7 @@
         <v>365610.2978379073</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3191,7 +2799,7 @@
         <v>352608.9870756122</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3224,7 +2832,7 @@
         <v>350215.7162756122</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3257,7 +2865,7 @@
         <v>289776.4099756122</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3323,7 +2931,7 @@
         <v>282757.7911027308</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3389,7 +2997,7 @@
         <v>322781.6690027307</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3422,7 +3030,7 @@
         <v>322781.6690027307</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3455,7 +3063,7 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3488,7 +3096,7 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3521,7 +3129,7 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3554,7 +3162,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3587,7 +3195,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -4082,7 +3690,7 @@
         <v>238203.5244027307</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4115,7 +3723,7 @@
         <v>233448.6747027307</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4181,7 +3789,7 @@
         <v>130794.9978027307</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4214,7 +3822,7 @@
         <v>134454.5082027307</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4379,7 +3987,7 @@
         <v>139486.6922027307</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4412,7 +4020,7 @@
         <v>136472.6922027307</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4445,7 +4053,7 @@
         <v>136472.6922027307</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4478,7 +4086,7 @@
         <v>136472.6922027307</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4511,7 +4119,7 @@
         <v>138431.6922027307</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4544,7 +4152,7 @@
         <v>138428.6922027307</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4577,7 +4185,7 @@
         <v>139418.9422027307</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4610,7 +4218,7 @@
         <v>139208.9422027307</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4643,7 +4251,7 @@
         <v>139208.9422027307</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4676,7 +4284,7 @@
         <v>146417.9288027307</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -6403,6 +6011,6 @@
       <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -562,9 +562,11 @@
         <v>23760.45406371371</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
       <c r="J5" t="n">
         <v>108</v>
       </c>
@@ -720,10 +722,14 @@
         <v>23559.58856371371</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>110</v>
+      </c>
+      <c r="J9" t="n">
+        <v>110</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -753,11 +759,19 @@
         <v>128431.2045637137</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>109</v>
+      </c>
+      <c r="J10" t="n">
+        <v>110</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -789,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>110</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -822,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -855,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>110</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -888,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>110</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -921,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>110</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -954,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>110</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -987,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>110</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1017,11 +1073,17 @@
         <v>203942.8107637137</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>110</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1050,11 +1112,17 @@
         <v>202219.5203637137</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>110</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1083,11 +1151,17 @@
         <v>202219.5203637137</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>110</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1119,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>110</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1152,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>110</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1185,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>110</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1218,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>110</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1251,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>110</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1284,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>110</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1317,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>110</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1350,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>110</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1383,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>110</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1416,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>110</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1449,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>110</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1482,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>110</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1515,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>110</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1548,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>110</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1581,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>110</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1614,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>110</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>110</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1680,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>110</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1713,8 +1895,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>110</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1746,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>110</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1779,8 +1973,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>110</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1812,8 +2012,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>110</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1845,8 +2051,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>110</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1878,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>110</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1911,8 +2129,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>110</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1944,8 +2168,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>110</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1977,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>110</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2010,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>110</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2043,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>110</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2076,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>110</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2109,8 +2363,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>110</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2142,8 +2402,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>110</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2175,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>110</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2208,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>110</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2241,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>110</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2274,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>110</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2307,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>110</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2340,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>110</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2373,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>110</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2406,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>110</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2439,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2472,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>110</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2505,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>110</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2538,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>110</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2571,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>110</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2604,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>110</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2634,15 +2984,23 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>110</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>1.131363636363637</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.037735849056604</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2667,7 +3025,7 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2700,7 +3058,7 @@
         <v>347717.1128637137</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2733,7 +3091,7 @@
         <v>335169.8724379073</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2766,7 +3124,7 @@
         <v>365610.2978379073</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2799,7 +3157,7 @@
         <v>352608.9870756122</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2832,7 +3190,7 @@
         <v>350215.7162756122</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2865,7 +3223,7 @@
         <v>289776.4099756122</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2964,7 +3322,7 @@
         <v>303541.1693027308</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3063,7 +3421,7 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3228,7 +3586,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3261,7 +3619,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3294,7 +3652,7 @@
         <v>303140.9554027307</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3360,7 +3718,7 @@
         <v>286991.9116027307</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3393,7 +3751,7 @@
         <v>279884.3009027307</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3426,7 +3784,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3459,7 +3817,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3492,7 +3850,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3525,7 +3883,7 @@
         <v>252067.2757027307</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3558,7 +3916,7 @@
         <v>245303.5809027307</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3591,7 +3949,7 @@
         <v>245313.5809027307</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3624,7 +3982,7 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3657,7 +4015,7 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest FX.xlsx
+++ b/BackTest/2019-10-22 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2138.656540740741</v>
       </c>
       <c r="G2" t="n">
-        <v>24920.79752297297</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>24921.79752297297</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>108</v>
-      </c>
-      <c r="J3" t="n">
-        <v>108</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>861.3434592592592</v>
       </c>
       <c r="G4" t="n">
-        <v>24060.45406371371</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J4" t="n">
-        <v>108</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>23760.45406371371</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>108</v>
-      </c>
-      <c r="J5" t="n">
-        <v>108</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +563,15 @@
         <v>523.2221</v>
       </c>
       <c r="G6" t="n">
-        <v>23237.23196371371</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>107</v>
-      </c>
-      <c r="J6" t="n">
-        <v>107</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +593,15 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>23238.23196371371</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>106</v>
-      </c>
-      <c r="J7" t="n">
-        <v>107</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +623,21 @@
         <v>322.1783</v>
       </c>
       <c r="G8" t="n">
-        <v>23560.41026371371</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
         <v>109</v>
       </c>
-      <c r="J8" t="n">
-        <v>107</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,22 +659,19 @@
         <v>0.8217</v>
       </c>
       <c r="G9" t="n">
-        <v>23559.58856371371</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>110</v>
-      </c>
-      <c r="J9" t="n">
-        <v>110</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +693,21 @@
         <v>104871.616</v>
       </c>
       <c r="G10" t="n">
-        <v>128431.2045637137</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>109</v>
       </c>
-      <c r="J10" t="n">
-        <v>110</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,24 +729,19 @@
         <v>1341.5872</v>
       </c>
       <c r="G11" t="n">
-        <v>127089.6173637137</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>110</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,24 +763,19 @@
         <v>44425.3864</v>
       </c>
       <c r="G12" t="n">
-        <v>171515.0037637137</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>110</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,24 +797,19 @@
         <v>6209.237</v>
       </c>
       <c r="G13" t="n">
-        <v>171515.0037637137</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>110</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -914,24 +831,19 @@
         <v>21890.293</v>
       </c>
       <c r="G14" t="n">
-        <v>193405.2967637137</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>110</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -953,24 +865,19 @@
         <v>24012.3974</v>
       </c>
       <c r="G15" t="n">
-        <v>193405.2967637137</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>110</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,24 +899,19 @@
         <v>36273.4445</v>
       </c>
       <c r="G16" t="n">
-        <v>229678.7412637137</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>110</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,24 +933,19 @@
         <v>36255.9008</v>
       </c>
       <c r="G17" t="n">
-        <v>193422.8404637137</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>110</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,24 +967,19 @@
         <v>10519.9703</v>
       </c>
       <c r="G18" t="n">
-        <v>203942.8107637137</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>110</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1109,24 +1001,19 @@
         <v>1723.2904</v>
       </c>
       <c r="G19" t="n">
-        <v>202219.5203637137</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>110</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1148,24 +1035,19 @@
         <v>1524.2222</v>
       </c>
       <c r="G20" t="n">
-        <v>202219.5203637137</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>110</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1187,24 +1069,19 @@
         <v>4857.282</v>
       </c>
       <c r="G21" t="n">
-        <v>197362.2383637137</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>110</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1226,24 +1103,19 @@
         <v>8878.9198</v>
       </c>
       <c r="G22" t="n">
-        <v>197362.2383637137</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>110</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,24 +1137,19 @@
         <v>567.0829</v>
       </c>
       <c r="G23" t="n">
-        <v>197362.2383637137</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>110</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1304,24 +1171,19 @@
         <v>2900</v>
       </c>
       <c r="G24" t="n">
-        <v>197362.2383637137</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>110</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1343,24 +1205,19 @@
         <v>22.4581</v>
       </c>
       <c r="G25" t="n">
-        <v>197362.2383637137</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>110</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1382,24 +1239,19 @@
         <v>17692.7057</v>
       </c>
       <c r="G26" t="n">
-        <v>179669.5326637137</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>110</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1421,24 +1273,19 @@
         <v>11997.9383</v>
       </c>
       <c r="G27" t="n">
-        <v>179669.5326637137</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>110</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1460,24 +1307,19 @@
         <v>5.354</v>
       </c>
       <c r="G28" t="n">
-        <v>179674.8866637137</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>110</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1499,24 +1341,19 @@
         <v>8508.0769</v>
       </c>
       <c r="G29" t="n">
-        <v>171166.8097637137</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>110</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,24 +1375,19 @@
         <v>109</v>
       </c>
       <c r="G30" t="n">
-        <v>171275.8097637137</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>110</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1577,24 +1409,19 @@
         <v>1805.6409</v>
       </c>
       <c r="G31" t="n">
-        <v>171275.8097637137</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>110</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1616,24 +1443,19 @@
         <v>313.7178</v>
       </c>
       <c r="G32" t="n">
-        <v>171589.5275637137</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>110</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1655,24 +1477,19 @@
         <v>18616.1483</v>
       </c>
       <c r="G33" t="n">
-        <v>152973.3792637137</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>110</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1694,24 +1511,19 @@
         <v>5548.5924</v>
       </c>
       <c r="G34" t="n">
-        <v>152973.3792637137</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>110</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1733,24 +1545,19 @@
         <v>337</v>
       </c>
       <c r="G35" t="n">
-        <v>152973.3792637137</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>110</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,24 +1579,19 @@
         <v>0.4972</v>
       </c>
       <c r="G36" t="n">
-        <v>152973.3792637137</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>110</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1811,24 +1613,19 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>152974.3792637137</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>110</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1850,24 +1647,19 @@
         <v>950.376</v>
       </c>
       <c r="G38" t="n">
-        <v>153924.7552637137</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>110</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1889,24 +1681,19 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>153922.7552637137</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>110</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1928,24 +1715,19 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>153923.7552637137</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>110</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1967,24 +1749,19 @@
         <v>24</v>
       </c>
       <c r="G41" t="n">
-        <v>153923.7552637137</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>110</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2006,24 +1783,19 @@
         <v>24667.9579</v>
       </c>
       <c r="G42" t="n">
-        <v>129255.7973637137</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>110</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2045,24 +1817,19 @@
         <v>1803.8753</v>
       </c>
       <c r="G43" t="n">
-        <v>127451.9220637137</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>110</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,24 +1851,19 @@
         <v>333.3454</v>
       </c>
       <c r="G44" t="n">
-        <v>127451.9220637137</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>110</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2123,24 +1885,19 @@
         <v>18698.7775</v>
       </c>
       <c r="G45" t="n">
-        <v>127451.9220637137</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>110</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2162,24 +1919,19 @@
         <v>21.5596</v>
       </c>
       <c r="G46" t="n">
-        <v>127451.9220637137</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>110</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2201,24 +1953,19 @@
         <v>117.0671</v>
       </c>
       <c r="G47" t="n">
-        <v>127451.9220637137</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>110</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2240,24 +1987,19 @@
         <v>151.4592</v>
       </c>
       <c r="G48" t="n">
-        <v>127451.9220637137</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>110</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2279,24 +2021,19 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>127452.9220637137</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>110</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2318,24 +2055,19 @@
         <v>1111.3066</v>
       </c>
       <c r="G50" t="n">
-        <v>126341.6154637137</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>110</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2357,24 +2089,19 @@
         <v>2.1958</v>
       </c>
       <c r="G51" t="n">
-        <v>126339.4196637137</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>110</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2396,24 +2123,21 @@
         <v>4652.5001</v>
       </c>
       <c r="G52" t="n">
-        <v>126339.4196637137</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>110</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2435,24 +2159,21 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>126340.4196637137</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>110</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2474,24 +2195,21 @@
         <v>91.7431</v>
       </c>
       <c r="G54" t="n">
-        <v>126248.6765637137</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>110</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2513,24 +2231,21 @@
         <v>5535.5769</v>
       </c>
       <c r="G55" t="n">
-        <v>131784.2534637137</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>110</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2552,24 +2267,19 @@
         <v>44816.4391</v>
       </c>
       <c r="G56" t="n">
-        <v>176600.6925637137</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>110</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2591,24 +2301,19 @@
         <v>16806.9764</v>
       </c>
       <c r="G57" t="n">
-        <v>159793.7161637137</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>110</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2630,24 +2335,19 @@
         <v>2217.0476</v>
       </c>
       <c r="G58" t="n">
-        <v>162010.7637637137</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>110</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2669,24 +2369,19 @@
         <v>1692.8228</v>
       </c>
       <c r="G59" t="n">
-        <v>162010.7637637137</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>110</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2708,24 +2403,19 @@
         <v>3458.8056</v>
       </c>
       <c r="G60" t="n">
-        <v>165469.5693637137</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>110</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2747,24 +2437,19 @@
         <v>63151.9738</v>
       </c>
       <c r="G61" t="n">
-        <v>228621.5431637137</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>110</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2786,24 +2471,19 @@
         <v>31110.4</v>
       </c>
       <c r="G62" t="n">
-        <v>259731.9431637137</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>110</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2825,24 +2505,19 @@
         <v>52285.3983</v>
       </c>
       <c r="G63" t="n">
-        <v>312017.3414637137</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>110</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2864,24 +2539,19 @@
         <v>37482.9993</v>
       </c>
       <c r="G64" t="n">
-        <v>349500.3407637137</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>110</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2903,24 +2573,19 @@
         <v>41428.7538</v>
       </c>
       <c r="G65" t="n">
-        <v>349500.3407637137</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>110</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2942,24 +2607,19 @@
         <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>349502.3407637137</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>110</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2981,26 +2641,19 @@
         <v>16209.364</v>
       </c>
       <c r="G67" t="n">
-        <v>349502.3407637137</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>110</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1.131363636363637</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.037735849056604</v>
-      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3022,18 +2675,19 @@
         <v>12468.06179685039</v>
       </c>
       <c r="G68" t="n">
-        <v>349502.3407637137</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3055,18 +2709,17 @@
         <v>1785.2279</v>
       </c>
       <c r="G69" t="n">
-        <v>347717.1128637137</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3088,18 +2741,15 @@
         <v>12547.24042580645</v>
       </c>
       <c r="G70" t="n">
-        <v>335169.8724379073</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3121,18 +2771,15 @@
         <v>30440.4254</v>
       </c>
       <c r="G71" t="n">
-        <v>365610.2978379073</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3154,18 +2801,15 @@
         <v>13001.31076229508</v>
       </c>
       <c r="G72" t="n">
-        <v>352608.9870756122</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3187,18 +2831,15 @@
         <v>2393.2708</v>
       </c>
       <c r="G73" t="n">
-        <v>350215.7162756122</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3220,18 +2861,15 @@
         <v>60439.3063</v>
       </c>
       <c r="G74" t="n">
-        <v>289776.4099756122</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3253,18 +2891,15 @@
         <v>7866.0765</v>
       </c>
       <c r="G75" t="n">
-        <v>281910.3334756122</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3286,18 +2921,15 @@
         <v>847.457627118644</v>
       </c>
       <c r="G76" t="n">
-        <v>282757.7911027308</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3319,18 +2951,15 @@
         <v>20783.3782</v>
       </c>
       <c r="G77" t="n">
-        <v>303541.1693027308</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3352,18 +2981,15 @@
         <v>19240.4997</v>
       </c>
       <c r="G78" t="n">
-        <v>322781.6690027307</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3385,18 +3011,15 @@
         <v>3679.0084</v>
       </c>
       <c r="G79" t="n">
-        <v>322781.6690027307</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3418,18 +3041,15 @@
         <v>11017.5844</v>
       </c>
       <c r="G80" t="n">
-        <v>311764.0846027308</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3451,18 +3071,15 @@
         <v>62.6776</v>
       </c>
       <c r="G81" t="n">
-        <v>311764.0846027308</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3484,18 +3101,15 @@
         <v>7800</v>
       </c>
       <c r="G82" t="n">
-        <v>311764.0846027308</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3517,18 +3131,15 @@
         <v>8043</v>
       </c>
       <c r="G83" t="n">
-        <v>303721.0846027308</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3550,18 +3161,15 @@
         <v>3669.8109</v>
       </c>
       <c r="G84" t="n">
-        <v>303721.0846027308</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3583,18 +3191,15 @@
         <v>1025.0621</v>
       </c>
       <c r="G85" t="n">
-        <v>303721.0846027308</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3616,18 +3221,15 @@
         <v>743.2608</v>
       </c>
       <c r="G86" t="n">
-        <v>303721.0846027308</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3649,18 +3251,15 @@
         <v>580.1292</v>
       </c>
       <c r="G87" t="n">
-        <v>303140.9554027307</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3682,18 +3281,15 @@
         <v>5418.3347</v>
       </c>
       <c r="G88" t="n">
-        <v>303140.9554027307</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3715,18 +3311,15 @@
         <v>16149.0438</v>
       </c>
       <c r="G89" t="n">
-        <v>286991.9116027307</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3748,18 +3341,15 @@
         <v>7107.6107</v>
       </c>
       <c r="G90" t="n">
-        <v>279884.3009027307</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3781,18 +3371,15 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>279894.3009027307</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3814,18 +3401,15 @@
         <v>3508.5808</v>
       </c>
       <c r="G92" t="n">
-        <v>279894.3009027307</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3847,18 +3431,15 @@
         <v>464.796</v>
       </c>
       <c r="G93" t="n">
-        <v>279894.3009027307</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3880,18 +3461,15 @@
         <v>27827.0252</v>
       </c>
       <c r="G94" t="n">
-        <v>252067.2757027307</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3913,18 +3491,15 @@
         <v>6763.6948</v>
       </c>
       <c r="G95" t="n">
-        <v>245303.5809027307</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3946,18 +3521,19 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>245313.5809027307</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="I96" t="n">
+        <v>112</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3979,18 +3555,21 @@
         <v>7111.0565</v>
       </c>
       <c r="G97" t="n">
-        <v>238202.5244027307</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>112</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4012,18 +3591,23 @@
         <v>2800</v>
       </c>
       <c r="G98" t="n">
-        <v>238202.5244027307</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4045,18 +3629,15 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>238203.5244027307</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4078,18 +3659,15 @@
         <v>4754.8497</v>
       </c>
       <c r="G100" t="n">
-        <v>233448.6747027307</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4111,18 +3689,15 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>233449.6747027307</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4144,18 +3719,15 @@
         <v>102654.6769</v>
       </c>
       <c r="G102" t="n">
-        <v>130794.9978027307</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4177,18 +3749,15 @@
         <v>3659.5104</v>
       </c>
       <c r="G103" t="n">
-        <v>134454.5082027307</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4210,18 +3779,15 @@
         <v>1413</v>
       </c>
       <c r="G104" t="n">
-        <v>134454.5082027307</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4243,18 +3809,15 @@
         <v>2514</v>
       </c>
       <c r="G105" t="n">
-        <v>134454.5082027307</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4276,18 +3839,15 @@
         <v>263</v>
       </c>
       <c r="G106" t="n">
-        <v>134454.5082027307</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4309,18 +3869,15 @@
         <v>12</v>
       </c>
       <c r="G107" t="n">
-        <v>134454.5082027307</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4342,18 +3899,15 @@
         <v>5032.184</v>
       </c>
       <c r="G108" t="n">
-        <v>139486.6922027307</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4375,18 +3929,15 @@
         <v>3014</v>
       </c>
       <c r="G109" t="n">
-        <v>136472.6922027307</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4408,18 +3959,15 @@
         <v>13</v>
       </c>
       <c r="G110" t="n">
-        <v>136472.6922027307</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4441,18 +3989,15 @@
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>136472.6922027307</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4474,18 +4019,15 @@
         <v>1959</v>
       </c>
       <c r="G112" t="n">
-        <v>138431.6922027307</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4507,18 +4049,15 @@
         <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>138428.6922027307</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4540,18 +4079,21 @@
         <v>990.25</v>
       </c>
       <c r="G114" t="n">
-        <v>139418.9422027307</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4573,18 +4115,21 @@
         <v>210</v>
       </c>
       <c r="G115" t="n">
-        <v>139208.9422027307</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4606,18 +4151,21 @@
         <v>8</v>
       </c>
       <c r="G116" t="n">
-        <v>139208.9422027307</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4639,18 +4187,21 @@
         <v>7208.9866</v>
       </c>
       <c r="G117" t="n">
-        <v>146417.9288027307</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4672,18 +4223,19 @@
         <v>6</v>
       </c>
       <c r="G118" t="n">
-        <v>146411.9288027307</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4705,18 +4257,19 @@
         <v>37336.1052</v>
       </c>
       <c r="G119" t="n">
-        <v>183748.0340027307</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4738,18 +4291,19 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>183748.0340027307</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4771,18 +4325,19 @@
         <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>183748.0340027307</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4804,18 +4359,19 @@
         <v>3114.0973</v>
       </c>
       <c r="G122" t="n">
-        <v>183748.0340027307</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4837,18 +4393,19 @@
         <v>3050.8849</v>
       </c>
       <c r="G123" t="n">
-        <v>183748.0340027307</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4870,18 +4427,19 @@
         <v>6633.316</v>
       </c>
       <c r="G124" t="n">
-        <v>190381.3500027307</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4903,18 +4461,19 @@
         <v>27306.0113</v>
       </c>
       <c r="G125" t="n">
-        <v>163075.3387027307</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4936,18 +4495,19 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>163075.3387027307</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4969,18 +4529,19 @@
         <v>3</v>
       </c>
       <c r="G127" t="n">
-        <v>163075.3387027307</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5002,18 +4563,19 @@
         <v>6</v>
       </c>
       <c r="G128" t="n">
-        <v>163075.3387027307</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5035,18 +4597,19 @@
         <v>9</v>
       </c>
       <c r="G129" t="n">
-        <v>163075.3387027307</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5068,18 +4631,19 @@
         <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>163075.3387027307</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5101,18 +4665,19 @@
         <v>20232.4347</v>
       </c>
       <c r="G131" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5134,18 +4699,19 @@
         <v>8849.557500000001</v>
       </c>
       <c r="G132" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5167,18 +4733,19 @@
         <v>10512.7805</v>
       </c>
       <c r="G133" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5200,18 +4767,19 @@
         <v>4</v>
       </c>
       <c r="G134" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5233,18 +4801,19 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5266,18 +4835,19 @@
         <v>7</v>
       </c>
       <c r="G136" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5299,18 +4869,19 @@
         <v>9</v>
       </c>
       <c r="G137" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5332,18 +4903,19 @@
         <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5365,18 +4937,19 @@
         <v>3894.2068</v>
       </c>
       <c r="G139" t="n">
-        <v>183307.7734027307</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5398,18 +4971,19 @@
         <v>1.1</v>
       </c>
       <c r="G140" t="n">
-        <v>183308.8734027307</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5431,18 +5005,19 @@
         <v>10001</v>
       </c>
       <c r="G141" t="n">
-        <v>193309.8734027307</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5464,18 +5039,19 @@
         <v>1008</v>
       </c>
       <c r="G142" t="n">
-        <v>192301.8734027307</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5497,18 +5073,19 @@
         <v>1.1</v>
       </c>
       <c r="G143" t="n">
-        <v>192302.9734027307</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5530,18 +5107,19 @@
         <v>713.9246000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>191589.0488027307</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5563,18 +5141,19 @@
         <v>5</v>
       </c>
       <c r="G145" t="n">
-        <v>191594.0488027307</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5596,18 +5175,19 @@
         <v>4</v>
       </c>
       <c r="G146" t="n">
-        <v>191590.0488027307</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5629,18 +5209,19 @@
         <v>16785.1027</v>
       </c>
       <c r="G147" t="n">
-        <v>191590.0488027307</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5662,18 +5243,19 @@
         <v>4425.7787</v>
       </c>
       <c r="G148" t="n">
-        <v>191590.0488027307</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5695,18 +5277,19 @@
         <v>3</v>
       </c>
       <c r="G149" t="n">
-        <v>191587.0488027307</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5728,18 +5311,19 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>191588.0488027307</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5761,18 +5345,19 @@
         <v>559</v>
       </c>
       <c r="G151" t="n">
-        <v>192147.0488027307</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5794,18 +5379,19 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>192146.0488027307</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5827,18 +5413,19 @@
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>192147.0488027307</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5860,18 +5447,19 @@
         <v>1.45</v>
       </c>
       <c r="G154" t="n">
-        <v>192147.0488027307</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5893,18 +5481,19 @@
         <v>1.1</v>
       </c>
       <c r="G155" t="n">
-        <v>192147.0488027307</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5926,18 +5515,19 @@
         <v>3115.7781</v>
       </c>
       <c r="G156" t="n">
-        <v>189031.2707027307</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5959,18 +5549,19 @@
         <v>117</v>
       </c>
       <c r="G157" t="n">
-        <v>189148.2707027307</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5992,18 +5583,19 @@
         <v>1784.6747</v>
       </c>
       <c r="G158" t="n">
-        <v>187363.5960027307</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6025,18 +5617,19 @@
         <v>295.9294</v>
       </c>
       <c r="G159" t="n">
-        <v>187659.5254027307</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6058,18 +5651,19 @@
         <v>55.5</v>
       </c>
       <c r="G160" t="n">
-        <v>187604.0254027307</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6091,18 +5685,19 @@
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>187605.0254027307</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6124,18 +5719,19 @@
         <v>87</v>
       </c>
       <c r="G162" t="n">
-        <v>187692.0254027307</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6157,18 +5753,19 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>187692.0254027307</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6190,18 +5787,19 @@
         <v>20766</v>
       </c>
       <c r="G164" t="n">
-        <v>187692.0254027307</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6223,18 +5821,19 @@
         <v>5</v>
       </c>
       <c r="G165" t="n">
-        <v>187697.0254027307</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6256,18 +5855,19 @@
         <v>7273.6017</v>
       </c>
       <c r="G166" t="n">
-        <v>180423.4237027307</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6289,18 +5889,19 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>180424.4237027307</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6322,18 +5923,19 @@
         <v>2056.0137</v>
       </c>
       <c r="G168" t="n">
-        <v>178368.4100027307</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6355,18 +5957,19 @@
         <v>2364</v>
       </c>
       <c r="G169" t="n">
-        <v>180732.4100027307</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
